--- a/ProjectCore/ProjectData/ProfessorData.xlsx
+++ b/ProjectCore/ProjectData/ProfessorData.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="120" windowWidth="15132" windowHeight="9300"/>
+    <workbookView xWindow="120" yWindow="120" windowWidth="15135" windowHeight="9300" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Professor" sheetId="1" r:id="rId1"/>
+    <sheet name="Available" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>ID</t>
   </si>
@@ -105,12 +106,24 @@
   <si>
     <t>Piedad Meggs  </t>
   </si>
+  <si>
+    <t>Professor Id</t>
+  </si>
+  <si>
+    <t>Slot</t>
+  </si>
+  <si>
+    <t>Godzina</t>
+  </si>
+  <si>
+    <t>Dzień</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -127,6 +140,21 @@
       <sz val="10"/>
       <color indexed="8"/>
       <name val="Arial"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color indexed="16"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color indexed="8"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="238"/>
     </font>
   </fonts>
   <fills count="4">
@@ -183,12 +211,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="14" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -562,17 +597,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B15"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F11" sqref="F11"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="5" customWidth="1"/>
     <col min="2" max="2" width="30" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="25.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" ht="25.7" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -580,7 +615,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>2</v>
       </c>
@@ -588,7 +623,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="3" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
         <v>3</v>
       </c>
@@ -596,7 +631,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="4" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
         <v>4</v>
       </c>
@@ -604,7 +639,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="5" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
         <v>5</v>
       </c>
@@ -612,7 +647,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="6" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
         <v>6</v>
       </c>
@@ -620,7 +655,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
         <v>7</v>
       </c>
@@ -628,7 +663,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="8" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
         <v>8</v>
       </c>
@@ -636,7 +671,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="9" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
         <v>9</v>
       </c>
@@ -644,7 +679,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
         <v>10</v>
       </c>
@@ -652,7 +687,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
         <v>11</v>
       </c>
@@ -660,7 +695,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="12" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
         <v>12</v>
       </c>
@@ -668,7 +703,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
         <v>13</v>
       </c>
@@ -676,7 +711,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
         <v>14</v>
       </c>
@@ -684,7 +719,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:2" ht="13.2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
         <v>15</v>
       </c>
@@ -697,4 +732,4989 @@
   <pageSetup paperSize="0" fitToWidth="0" fitToHeight="0" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E310"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K18" sqref="K18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="27.5703125" customWidth="1"/>
+    <col min="2" max="2" width="19.42578125" customWidth="1"/>
+    <col min="3" max="3" width="21.85546875" customWidth="1"/>
+    <col min="4" max="4" width="31.5703125" customWidth="1"/>
+    <col min="5" max="5" width="10.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" ht="29.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="B1" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C1" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2">
+        <f>MOD(B2,12) +7</f>
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="str">
+        <f>TEXT(DATE(2017,5,(B2/12)+1),"dddd")</f>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
+        <v>1</v>
+      </c>
+      <c r="B3" s="2">
+        <v>1</v>
+      </c>
+      <c r="C3" s="2">
+        <f t="shared" ref="C3:C66" si="0">MOD(B3,12) +7</f>
+        <v>8</v>
+      </c>
+      <c r="D3" s="5" t="str">
+        <f>TEXT(DATE(2017,5,(B3/12)+1),"dddd")</f>
+        <v>poniedziałek</v>
+      </c>
+      <c r="E3" s="4"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>1</v>
+      </c>
+      <c r="B4" s="2">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D4" s="5" t="str">
+        <f t="shared" ref="D4:D67" si="1">TEXT(DATE(2017,5,(B4/12)+1),"dddd")</f>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>1</v>
+      </c>
+      <c r="B5" s="2">
+        <v>3</v>
+      </c>
+      <c r="C5" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D5" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>1</v>
+      </c>
+      <c r="B6" s="2">
+        <v>4</v>
+      </c>
+      <c r="C6" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D6" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>1</v>
+      </c>
+      <c r="B7" s="2">
+        <v>5</v>
+      </c>
+      <c r="C7" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D7" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>1</v>
+      </c>
+      <c r="B8" s="2">
+        <v>6</v>
+      </c>
+      <c r="C8" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D8" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>1</v>
+      </c>
+      <c r="B9" s="2">
+        <v>7</v>
+      </c>
+      <c r="C9" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D9" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>1</v>
+      </c>
+      <c r="B10" s="2">
+        <v>8</v>
+      </c>
+      <c r="C10" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D10" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>1</v>
+      </c>
+      <c r="B11" s="2">
+        <v>9</v>
+      </c>
+      <c r="C11" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D11" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>1</v>
+      </c>
+      <c r="B12" s="2">
+        <v>10</v>
+      </c>
+      <c r="C12" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D12" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
+        <v>1</v>
+      </c>
+      <c r="B13" s="2">
+        <v>11</v>
+      </c>
+      <c r="C13" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D13" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A14" s="2">
+        <v>1</v>
+      </c>
+      <c r="B14" s="2">
+        <v>12</v>
+      </c>
+      <c r="C14" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D14" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A15" s="2">
+        <v>1</v>
+      </c>
+      <c r="B15" s="2">
+        <v>13</v>
+      </c>
+      <c r="C15" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D15" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A16" s="2">
+        <v>1</v>
+      </c>
+      <c r="B16" s="2">
+        <v>14</v>
+      </c>
+      <c r="C16" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D16" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A17" s="2">
+        <v>1</v>
+      </c>
+      <c r="B17" s="2">
+        <v>15</v>
+      </c>
+      <c r="C17" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D17" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A18" s="2">
+        <v>1</v>
+      </c>
+      <c r="B18" s="2">
+        <v>16</v>
+      </c>
+      <c r="C18" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D18" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A19" s="2">
+        <v>2</v>
+      </c>
+      <c r="B19" s="2">
+        <v>0</v>
+      </c>
+      <c r="C19" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D19" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A20" s="2">
+        <v>2</v>
+      </c>
+      <c r="B20" s="2">
+        <v>1</v>
+      </c>
+      <c r="C20" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D20" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A21" s="2">
+        <v>2</v>
+      </c>
+      <c r="B21" s="2">
+        <v>2</v>
+      </c>
+      <c r="C21" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D21" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A22" s="2">
+        <v>2</v>
+      </c>
+      <c r="B22" s="2">
+        <v>3</v>
+      </c>
+      <c r="C22" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D22" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A23" s="2">
+        <v>2</v>
+      </c>
+      <c r="B23" s="2">
+        <v>12</v>
+      </c>
+      <c r="C23" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D23" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A24" s="2">
+        <v>2</v>
+      </c>
+      <c r="B24" s="2">
+        <v>13</v>
+      </c>
+      <c r="C24" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D24" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A25" s="2">
+        <v>2</v>
+      </c>
+      <c r="B25" s="2">
+        <v>14</v>
+      </c>
+      <c r="C25" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D25" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A26" s="2">
+        <v>2</v>
+      </c>
+      <c r="B26" s="2">
+        <v>15</v>
+      </c>
+      <c r="C26" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D26" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A27" s="2">
+        <v>2</v>
+      </c>
+      <c r="B27" s="2">
+        <v>16</v>
+      </c>
+      <c r="C27" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D27" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A28" s="2">
+        <v>2</v>
+      </c>
+      <c r="B28" s="2">
+        <v>17</v>
+      </c>
+      <c r="C28" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D28" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A29" s="2">
+        <v>2</v>
+      </c>
+      <c r="B29" s="2">
+        <v>22</v>
+      </c>
+      <c r="C29" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D29" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A30" s="2">
+        <v>3</v>
+      </c>
+      <c r="B30" s="2">
+        <v>23</v>
+      </c>
+      <c r="C30" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D30" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A31" s="2">
+        <v>3</v>
+      </c>
+      <c r="B31" s="2">
+        <v>24</v>
+      </c>
+      <c r="C31" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D31" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A32" s="2">
+        <v>3</v>
+      </c>
+      <c r="B32" s="2">
+        <v>25</v>
+      </c>
+      <c r="C32" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D32" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A33" s="2">
+        <v>3</v>
+      </c>
+      <c r="B33" s="2">
+        <v>26</v>
+      </c>
+      <c r="C33" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D33" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A34" s="2">
+        <v>3</v>
+      </c>
+      <c r="B34" s="2">
+        <v>27</v>
+      </c>
+      <c r="C34" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D34" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A35" s="2">
+        <v>3</v>
+      </c>
+      <c r="B35" s="2">
+        <v>28</v>
+      </c>
+      <c r="C35" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D35" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A36" s="2">
+        <v>3</v>
+      </c>
+      <c r="B36" s="2">
+        <v>29</v>
+      </c>
+      <c r="C36" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D36" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A37" s="2">
+        <v>3</v>
+      </c>
+      <c r="B37" s="2">
+        <v>30</v>
+      </c>
+      <c r="C37" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D37" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A38" s="2">
+        <v>4</v>
+      </c>
+      <c r="B38" s="2">
+        <v>31</v>
+      </c>
+      <c r="C38" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D38" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A39" s="2">
+        <v>4</v>
+      </c>
+      <c r="B39" s="2">
+        <v>32</v>
+      </c>
+      <c r="C39" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D39" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A40" s="2">
+        <v>4</v>
+      </c>
+      <c r="B40" s="2">
+        <v>33</v>
+      </c>
+      <c r="C40" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D40" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A41" s="2">
+        <v>4</v>
+      </c>
+      <c r="B41" s="2">
+        <v>34</v>
+      </c>
+      <c r="C41" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D41" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A42" s="2">
+        <v>4</v>
+      </c>
+      <c r="B42" s="2">
+        <v>35</v>
+      </c>
+      <c r="C42" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D42" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A43" s="2">
+        <v>4</v>
+      </c>
+      <c r="B43" s="2">
+        <v>36</v>
+      </c>
+      <c r="C43" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D43" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A44" s="2">
+        <v>4</v>
+      </c>
+      <c r="B44" s="2">
+        <v>37</v>
+      </c>
+      <c r="C44" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D44" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A45" s="2">
+        <v>4</v>
+      </c>
+      <c r="B45" s="2">
+        <v>38</v>
+      </c>
+      <c r="C45" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D45" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A46" s="2">
+        <v>4</v>
+      </c>
+      <c r="B46" s="2">
+        <v>39</v>
+      </c>
+      <c r="C46" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D46" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A47" s="2">
+        <v>4</v>
+      </c>
+      <c r="B47" s="2">
+        <v>40</v>
+      </c>
+      <c r="C47" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D47" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A48" s="2">
+        <v>4</v>
+      </c>
+      <c r="B48" s="2">
+        <v>41</v>
+      </c>
+      <c r="C48" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D48" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A49" s="2">
+        <v>4</v>
+      </c>
+      <c r="B49" s="2">
+        <v>42</v>
+      </c>
+      <c r="C49" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D49" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A50" s="2">
+        <v>4</v>
+      </c>
+      <c r="B50" s="2">
+        <v>43</v>
+      </c>
+      <c r="C50" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D50" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A51" s="2">
+        <v>4</v>
+      </c>
+      <c r="B51" s="2">
+        <v>44</v>
+      </c>
+      <c r="C51" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D51" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A52" s="2">
+        <v>4</v>
+      </c>
+      <c r="B52" s="2">
+        <v>45</v>
+      </c>
+      <c r="C52" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D52" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A53" s="2">
+        <v>5</v>
+      </c>
+      <c r="B53" s="2">
+        <v>12</v>
+      </c>
+      <c r="C53" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D53" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A54" s="2">
+        <v>5</v>
+      </c>
+      <c r="B54" s="2">
+        <v>13</v>
+      </c>
+      <c r="C54" s="2">
+        <f t="shared" si="0"/>
+        <v>8</v>
+      </c>
+      <c r="D54" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A55" s="2">
+        <v>5</v>
+      </c>
+      <c r="B55" s="2">
+        <v>14</v>
+      </c>
+      <c r="C55" s="2">
+        <f t="shared" si="0"/>
+        <v>9</v>
+      </c>
+      <c r="D55" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A56" s="2">
+        <v>5</v>
+      </c>
+      <c r="B56" s="2">
+        <v>15</v>
+      </c>
+      <c r="C56" s="2">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="D56" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A57" s="2">
+        <v>5</v>
+      </c>
+      <c r="B57" s="2">
+        <v>16</v>
+      </c>
+      <c r="C57" s="2">
+        <f t="shared" si="0"/>
+        <v>11</v>
+      </c>
+      <c r="D57" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A58" s="2">
+        <v>5</v>
+      </c>
+      <c r="B58" s="2">
+        <v>17</v>
+      </c>
+      <c r="C58" s="2">
+        <f t="shared" si="0"/>
+        <v>12</v>
+      </c>
+      <c r="D58" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A59" s="2">
+        <v>5</v>
+      </c>
+      <c r="B59" s="2">
+        <v>18</v>
+      </c>
+      <c r="C59" s="2">
+        <f t="shared" si="0"/>
+        <v>13</v>
+      </c>
+      <c r="D59" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A60" s="2">
+        <v>5</v>
+      </c>
+      <c r="B60" s="2">
+        <v>19</v>
+      </c>
+      <c r="C60" s="2">
+        <f t="shared" si="0"/>
+        <v>14</v>
+      </c>
+      <c r="D60" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="2">
+        <v>5</v>
+      </c>
+      <c r="B61" s="2">
+        <v>20</v>
+      </c>
+      <c r="C61" s="2">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="D61" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A62" s="2">
+        <v>5</v>
+      </c>
+      <c r="B62" s="2">
+        <v>21</v>
+      </c>
+      <c r="C62" s="2">
+        <f t="shared" si="0"/>
+        <v>16</v>
+      </c>
+      <c r="D62" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A63" s="2">
+        <v>5</v>
+      </c>
+      <c r="B63" s="2">
+        <v>22</v>
+      </c>
+      <c r="C63" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D63" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A64" s="2">
+        <v>6</v>
+      </c>
+      <c r="B64" s="2">
+        <v>46</v>
+      </c>
+      <c r="C64" s="2">
+        <f t="shared" si="0"/>
+        <v>17</v>
+      </c>
+      <c r="D64" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A65" s="2">
+        <v>6</v>
+      </c>
+      <c r="B65" s="2">
+        <v>47</v>
+      </c>
+      <c r="C65" s="2">
+        <f t="shared" si="0"/>
+        <v>18</v>
+      </c>
+      <c r="D65" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A66" s="2">
+        <v>6</v>
+      </c>
+      <c r="B66" s="2">
+        <v>48</v>
+      </c>
+      <c r="C66" s="2">
+        <f t="shared" si="0"/>
+        <v>7</v>
+      </c>
+      <c r="D66" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A67" s="2">
+        <v>6</v>
+      </c>
+      <c r="B67" s="2">
+        <v>49</v>
+      </c>
+      <c r="C67" s="2">
+        <f t="shared" ref="C67:C130" si="2">MOD(B67,12) +7</f>
+        <v>8</v>
+      </c>
+      <c r="D67" s="5" t="str">
+        <f t="shared" si="1"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A68" s="2">
+        <v>6</v>
+      </c>
+      <c r="B68" s="2">
+        <v>50</v>
+      </c>
+      <c r="C68" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D68" s="5" t="str">
+        <f t="shared" ref="D68:D131" si="3">TEXT(DATE(2017,5,(B68/12)+1),"dddd")</f>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A69" s="2">
+        <v>6</v>
+      </c>
+      <c r="B69" s="2">
+        <v>51</v>
+      </c>
+      <c r="C69" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D69" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A70" s="2">
+        <v>6</v>
+      </c>
+      <c r="B70" s="2">
+        <v>52</v>
+      </c>
+      <c r="C70" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D70" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A71" s="2">
+        <v>7</v>
+      </c>
+      <c r="B71" s="2">
+        <v>53</v>
+      </c>
+      <c r="C71" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D71" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A72" s="2">
+        <v>7</v>
+      </c>
+      <c r="B72" s="2">
+        <v>54</v>
+      </c>
+      <c r="C72" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D72" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A73" s="2">
+        <v>7</v>
+      </c>
+      <c r="B73" s="2">
+        <v>55</v>
+      </c>
+      <c r="C73" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D73" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A74" s="2">
+        <v>7</v>
+      </c>
+      <c r="B74" s="2">
+        <v>56</v>
+      </c>
+      <c r="C74" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D74" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A75" s="2">
+        <v>7</v>
+      </c>
+      <c r="B75" s="2">
+        <v>57</v>
+      </c>
+      <c r="C75" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D75" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A76" s="2">
+        <v>7</v>
+      </c>
+      <c r="B76" s="2">
+        <v>58</v>
+      </c>
+      <c r="C76" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D76" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A77" s="2">
+        <v>7</v>
+      </c>
+      <c r="B77" s="2">
+        <v>59</v>
+      </c>
+      <c r="C77" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D77" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A78" s="2">
+        <v>7</v>
+      </c>
+      <c r="B78" s="2">
+        <v>0</v>
+      </c>
+      <c r="C78" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D78" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A79" s="2">
+        <v>7</v>
+      </c>
+      <c r="B79" s="2">
+        <v>1</v>
+      </c>
+      <c r="C79" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D79" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A80" s="2">
+        <v>7</v>
+      </c>
+      <c r="B80" s="2">
+        <v>2</v>
+      </c>
+      <c r="C80" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D80" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A81" s="2">
+        <v>7</v>
+      </c>
+      <c r="B81" s="2">
+        <v>3</v>
+      </c>
+      <c r="C81" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D81" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A82" s="2">
+        <v>7</v>
+      </c>
+      <c r="B82" s="2">
+        <v>4</v>
+      </c>
+      <c r="C82" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D82" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A83" s="2">
+        <v>7</v>
+      </c>
+      <c r="B83" s="2">
+        <v>5</v>
+      </c>
+      <c r="C83" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D83" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A84" s="2">
+        <v>7</v>
+      </c>
+      <c r="B84" s="2">
+        <v>6</v>
+      </c>
+      <c r="C84" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D84" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A85" s="2">
+        <v>7</v>
+      </c>
+      <c r="B85" s="2">
+        <v>7</v>
+      </c>
+      <c r="C85" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D85" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A86" s="2">
+        <v>7</v>
+      </c>
+      <c r="B86" s="2">
+        <v>8</v>
+      </c>
+      <c r="C86" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D86" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A87" s="2">
+        <v>7</v>
+      </c>
+      <c r="B87" s="2">
+        <v>9</v>
+      </c>
+      <c r="C87" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D87" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A88" s="2">
+        <v>7</v>
+      </c>
+      <c r="B88" s="2">
+        <v>10</v>
+      </c>
+      <c r="C88" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D88" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A89" s="2">
+        <v>7</v>
+      </c>
+      <c r="B89" s="2">
+        <v>11</v>
+      </c>
+      <c r="C89" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D89" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A90" s="2">
+        <v>7</v>
+      </c>
+      <c r="B90" s="2">
+        <v>12</v>
+      </c>
+      <c r="C90" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D90" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A91" s="2">
+        <v>7</v>
+      </c>
+      <c r="B91" s="2">
+        <v>13</v>
+      </c>
+      <c r="C91" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D91" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A92" s="2">
+        <v>7</v>
+      </c>
+      <c r="B92" s="2">
+        <v>14</v>
+      </c>
+      <c r="C92" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D92" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A93" s="2">
+        <v>7</v>
+      </c>
+      <c r="B93" s="2">
+        <v>15</v>
+      </c>
+      <c r="C93" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D93" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A94" s="2">
+        <v>7</v>
+      </c>
+      <c r="B94" s="2">
+        <v>16</v>
+      </c>
+      <c r="C94" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D94" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A95" s="2">
+        <v>7</v>
+      </c>
+      <c r="B95" s="2">
+        <v>17</v>
+      </c>
+      <c r="C95" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D95" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A96" s="2">
+        <v>7</v>
+      </c>
+      <c r="B96" s="2">
+        <v>18</v>
+      </c>
+      <c r="C96" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D96" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A97" s="2">
+        <v>7</v>
+      </c>
+      <c r="B97" s="2">
+        <v>19</v>
+      </c>
+      <c r="C97" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D97" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A98" s="2">
+        <v>7</v>
+      </c>
+      <c r="B98" s="2">
+        <v>20</v>
+      </c>
+      <c r="C98" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D98" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A99" s="2">
+        <v>7</v>
+      </c>
+      <c r="B99" s="2">
+        <v>21</v>
+      </c>
+      <c r="C99" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D99" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A100" s="2">
+        <v>7</v>
+      </c>
+      <c r="B100" s="2">
+        <v>22</v>
+      </c>
+      <c r="C100" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D100" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A101" s="2">
+        <v>7</v>
+      </c>
+      <c r="B101" s="2">
+        <v>23</v>
+      </c>
+      <c r="C101" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D101" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A102" s="2">
+        <v>7</v>
+      </c>
+      <c r="B102" s="2">
+        <v>24</v>
+      </c>
+      <c r="C102" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D102" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A103" s="2">
+        <v>7</v>
+      </c>
+      <c r="B103" s="2">
+        <v>25</v>
+      </c>
+      <c r="C103" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D103" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A104" s="2">
+        <v>7</v>
+      </c>
+      <c r="B104" s="2">
+        <v>26</v>
+      </c>
+      <c r="C104" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D104" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A105" s="2">
+        <v>7</v>
+      </c>
+      <c r="B105" s="2">
+        <v>27</v>
+      </c>
+      <c r="C105" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D105" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A106" s="2">
+        <v>7</v>
+      </c>
+      <c r="B106" s="2">
+        <v>28</v>
+      </c>
+      <c r="C106" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D106" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A107" s="2">
+        <v>7</v>
+      </c>
+      <c r="B107" s="2">
+        <v>29</v>
+      </c>
+      <c r="C107" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D107" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A108" s="2">
+        <v>7</v>
+      </c>
+      <c r="B108" s="2">
+        <v>30</v>
+      </c>
+      <c r="C108" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D108" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A109" s="2">
+        <v>7</v>
+      </c>
+      <c r="B109" s="2">
+        <v>31</v>
+      </c>
+      <c r="C109" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D109" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A110" s="2">
+        <v>8</v>
+      </c>
+      <c r="B110" s="2">
+        <v>32</v>
+      </c>
+      <c r="C110" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D110" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A111" s="2">
+        <v>8</v>
+      </c>
+      <c r="B111" s="2">
+        <v>33</v>
+      </c>
+      <c r="C111" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D111" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A112" s="2">
+        <v>8</v>
+      </c>
+      <c r="B112" s="2">
+        <v>34</v>
+      </c>
+      <c r="C112" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D112" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A113" s="2">
+        <v>8</v>
+      </c>
+      <c r="B113" s="2">
+        <v>35</v>
+      </c>
+      <c r="C113" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D113" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A114" s="2">
+        <v>8</v>
+      </c>
+      <c r="B114" s="2">
+        <v>36</v>
+      </c>
+      <c r="C114" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D114" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A115" s="2">
+        <v>8</v>
+      </c>
+      <c r="B115" s="2">
+        <v>37</v>
+      </c>
+      <c r="C115" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D115" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A116" s="2">
+        <v>8</v>
+      </c>
+      <c r="B116" s="2">
+        <v>38</v>
+      </c>
+      <c r="C116" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D116" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A117" s="2">
+        <v>8</v>
+      </c>
+      <c r="B117" s="2">
+        <v>39</v>
+      </c>
+      <c r="C117" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D117" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A118" s="2">
+        <v>8</v>
+      </c>
+      <c r="B118" s="2">
+        <v>40</v>
+      </c>
+      <c r="C118" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D118" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A119" s="2">
+        <v>8</v>
+      </c>
+      <c r="B119" s="2">
+        <v>41</v>
+      </c>
+      <c r="C119" s="2">
+        <f t="shared" si="2"/>
+        <v>12</v>
+      </c>
+      <c r="D119" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A120" s="2">
+        <v>8</v>
+      </c>
+      <c r="B120" s="2">
+        <v>42</v>
+      </c>
+      <c r="C120" s="2">
+        <f t="shared" si="2"/>
+        <v>13</v>
+      </c>
+      <c r="D120" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A121" s="2">
+        <v>8</v>
+      </c>
+      <c r="B121" s="2">
+        <v>43</v>
+      </c>
+      <c r="C121" s="2">
+        <f t="shared" si="2"/>
+        <v>14</v>
+      </c>
+      <c r="D121" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A122" s="2">
+        <v>8</v>
+      </c>
+      <c r="B122" s="2">
+        <v>44</v>
+      </c>
+      <c r="C122" s="2">
+        <f t="shared" si="2"/>
+        <v>15</v>
+      </c>
+      <c r="D122" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A123" s="2">
+        <v>8</v>
+      </c>
+      <c r="B123" s="2">
+        <v>45</v>
+      </c>
+      <c r="C123" s="2">
+        <f t="shared" si="2"/>
+        <v>16</v>
+      </c>
+      <c r="D123" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A124" s="2">
+        <v>8</v>
+      </c>
+      <c r="B124" s="2">
+        <v>46</v>
+      </c>
+      <c r="C124" s="2">
+        <f t="shared" si="2"/>
+        <v>17</v>
+      </c>
+      <c r="D124" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A125" s="2">
+        <v>8</v>
+      </c>
+      <c r="B125" s="2">
+        <v>47</v>
+      </c>
+      <c r="C125" s="2">
+        <f t="shared" si="2"/>
+        <v>18</v>
+      </c>
+      <c r="D125" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A126" s="2">
+        <v>8</v>
+      </c>
+      <c r="B126" s="2">
+        <v>48</v>
+      </c>
+      <c r="C126" s="2">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="D126" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A127" s="2">
+        <v>8</v>
+      </c>
+      <c r="B127" s="2">
+        <v>49</v>
+      </c>
+      <c r="C127" s="2">
+        <f t="shared" si="2"/>
+        <v>8</v>
+      </c>
+      <c r="D127" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A128" s="2">
+        <v>8</v>
+      </c>
+      <c r="B128" s="2">
+        <v>50</v>
+      </c>
+      <c r="C128" s="2">
+        <f t="shared" si="2"/>
+        <v>9</v>
+      </c>
+      <c r="D128" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A129" s="2">
+        <v>8</v>
+      </c>
+      <c r="B129" s="2">
+        <v>51</v>
+      </c>
+      <c r="C129" s="2">
+        <f t="shared" si="2"/>
+        <v>10</v>
+      </c>
+      <c r="D129" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A130" s="2">
+        <v>8</v>
+      </c>
+      <c r="B130" s="2">
+        <v>52</v>
+      </c>
+      <c r="C130" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D130" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A131" s="2">
+        <v>8</v>
+      </c>
+      <c r="B131" s="2">
+        <v>53</v>
+      </c>
+      <c r="C131" s="2">
+        <f t="shared" ref="C131:C194" si="4">MOD(B131,12) +7</f>
+        <v>12</v>
+      </c>
+      <c r="D131" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A132" s="2">
+        <v>8</v>
+      </c>
+      <c r="B132" s="2">
+        <v>54</v>
+      </c>
+      <c r="C132" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D132" s="5" t="str">
+        <f t="shared" ref="D132:D195" si="5">TEXT(DATE(2017,5,(B132/12)+1),"dddd")</f>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>8</v>
+      </c>
+      <c r="B133" s="2">
+        <v>55</v>
+      </c>
+      <c r="C133" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D133" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>8</v>
+      </c>
+      <c r="B134" s="2">
+        <v>56</v>
+      </c>
+      <c r="C134" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D134" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>8</v>
+      </c>
+      <c r="B135" s="2">
+        <v>57</v>
+      </c>
+      <c r="C135" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D135" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A136" s="2">
+        <v>8</v>
+      </c>
+      <c r="B136" s="2">
+        <v>58</v>
+      </c>
+      <c r="C136" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D136" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A137" s="2">
+        <v>8</v>
+      </c>
+      <c r="B137" s="2">
+        <v>59</v>
+      </c>
+      <c r="C137" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D137" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A138" s="2">
+        <v>8</v>
+      </c>
+      <c r="B138" s="2">
+        <v>10</v>
+      </c>
+      <c r="C138" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D138" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A139" s="2">
+        <v>8</v>
+      </c>
+      <c r="B139" s="2">
+        <v>11</v>
+      </c>
+      <c r="C139" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D139" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A140" s="2">
+        <v>8</v>
+      </c>
+      <c r="B140" s="2">
+        <v>12</v>
+      </c>
+      <c r="C140" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D140" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A141" s="2">
+        <v>8</v>
+      </c>
+      <c r="B141" s="2">
+        <v>13</v>
+      </c>
+      <c r="C141" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D141" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A142" s="2">
+        <v>8</v>
+      </c>
+      <c r="B142" s="2">
+        <v>14</v>
+      </c>
+      <c r="C142" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D142" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A143" s="2">
+        <v>8</v>
+      </c>
+      <c r="B143" s="2">
+        <v>15</v>
+      </c>
+      <c r="C143" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D143" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A144" s="2">
+        <v>8</v>
+      </c>
+      <c r="B144" s="2">
+        <v>16</v>
+      </c>
+      <c r="C144" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D144" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A145" s="2">
+        <v>8</v>
+      </c>
+      <c r="B145" s="2">
+        <v>17</v>
+      </c>
+      <c r="C145" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D145" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A146" s="2">
+        <v>8</v>
+      </c>
+      <c r="B146" s="2">
+        <v>18</v>
+      </c>
+      <c r="C146" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D146" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A147" s="2">
+        <v>8</v>
+      </c>
+      <c r="B147" s="2">
+        <v>19</v>
+      </c>
+      <c r="C147" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D147" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A148" s="2">
+        <v>8</v>
+      </c>
+      <c r="B148" s="2">
+        <v>20</v>
+      </c>
+      <c r="C148" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D148" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A149" s="2">
+        <v>8</v>
+      </c>
+      <c r="B149" s="2">
+        <v>21</v>
+      </c>
+      <c r="C149" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D149" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A150" s="2">
+        <v>8</v>
+      </c>
+      <c r="B150" s="2">
+        <v>22</v>
+      </c>
+      <c r="C150" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D150" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A151" s="2">
+        <v>8</v>
+      </c>
+      <c r="B151" s="2">
+        <v>23</v>
+      </c>
+      <c r="C151" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D151" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A152" s="2">
+        <v>9</v>
+      </c>
+      <c r="B152" s="2">
+        <v>0</v>
+      </c>
+      <c r="C152" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D152" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A153" s="2">
+        <v>9</v>
+      </c>
+      <c r="B153" s="2">
+        <v>1</v>
+      </c>
+      <c r="C153" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D153" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A154" s="2">
+        <v>9</v>
+      </c>
+      <c r="B154" s="2">
+        <v>2</v>
+      </c>
+      <c r="C154" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D154" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A155" s="2">
+        <v>9</v>
+      </c>
+      <c r="B155" s="2">
+        <v>3</v>
+      </c>
+      <c r="C155" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D155" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A156" s="2">
+        <v>9</v>
+      </c>
+      <c r="B156" s="2">
+        <v>4</v>
+      </c>
+      <c r="C156" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D156" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A157" s="2">
+        <v>9</v>
+      </c>
+      <c r="B157" s="2">
+        <v>5</v>
+      </c>
+      <c r="C157" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D157" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A158" s="2">
+        <v>9</v>
+      </c>
+      <c r="B158" s="2">
+        <v>6</v>
+      </c>
+      <c r="C158" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D158" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A159" s="2">
+        <v>9</v>
+      </c>
+      <c r="B159" s="2">
+        <v>7</v>
+      </c>
+      <c r="C159" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D159" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A160" s="2">
+        <v>9</v>
+      </c>
+      <c r="B160" s="2">
+        <v>8</v>
+      </c>
+      <c r="C160" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D160" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A161" s="2">
+        <v>9</v>
+      </c>
+      <c r="B161" s="2">
+        <v>9</v>
+      </c>
+      <c r="C161" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D161" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A162" s="2">
+        <v>9</v>
+      </c>
+      <c r="B162" s="2">
+        <v>10</v>
+      </c>
+      <c r="C162" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D162" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A163" s="2">
+        <v>9</v>
+      </c>
+      <c r="B163" s="2">
+        <v>11</v>
+      </c>
+      <c r="C163" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D163" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A164" s="2">
+        <v>9</v>
+      </c>
+      <c r="B164" s="2">
+        <v>12</v>
+      </c>
+      <c r="C164" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D164" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A165" s="2">
+        <v>9</v>
+      </c>
+      <c r="B165" s="2">
+        <v>13</v>
+      </c>
+      <c r="C165" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D165" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A166" s="2">
+        <v>9</v>
+      </c>
+      <c r="B166" s="2">
+        <v>14</v>
+      </c>
+      <c r="C166" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D166" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A167" s="2">
+        <v>9</v>
+      </c>
+      <c r="B167" s="2">
+        <v>15</v>
+      </c>
+      <c r="C167" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D167" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A168" s="2">
+        <v>9</v>
+      </c>
+      <c r="B168" s="2">
+        <v>16</v>
+      </c>
+      <c r="C168" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D168" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A169" s="2">
+        <v>9</v>
+      </c>
+      <c r="B169" s="2">
+        <v>17</v>
+      </c>
+      <c r="C169" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D169" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A170" s="2">
+        <v>9</v>
+      </c>
+      <c r="B170" s="2">
+        <v>18</v>
+      </c>
+      <c r="C170" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D170" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A171" s="2">
+        <v>9</v>
+      </c>
+      <c r="B171" s="2">
+        <v>19</v>
+      </c>
+      <c r="C171" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D171" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A172" s="2">
+        <v>9</v>
+      </c>
+      <c r="B172" s="2">
+        <v>20</v>
+      </c>
+      <c r="C172" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D172" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A173" s="2">
+        <v>9</v>
+      </c>
+      <c r="B173" s="2">
+        <v>21</v>
+      </c>
+      <c r="C173" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D173" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A174" s="2">
+        <v>9</v>
+      </c>
+      <c r="B174" s="2">
+        <v>22</v>
+      </c>
+      <c r="C174" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D174" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A175" s="2">
+        <v>9</v>
+      </c>
+      <c r="B175" s="2">
+        <v>23</v>
+      </c>
+      <c r="C175" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D175" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A176" s="2">
+        <v>9</v>
+      </c>
+      <c r="B176" s="2">
+        <v>24</v>
+      </c>
+      <c r="C176" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D176" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A177" s="2">
+        <v>9</v>
+      </c>
+      <c r="B177" s="2">
+        <v>25</v>
+      </c>
+      <c r="C177" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D177" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A178" s="2">
+        <v>9</v>
+      </c>
+      <c r="B178" s="2">
+        <v>26</v>
+      </c>
+      <c r="C178" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D178" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A179" s="2">
+        <v>9</v>
+      </c>
+      <c r="B179" s="2">
+        <v>27</v>
+      </c>
+      <c r="C179" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D179" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A180" s="2">
+        <v>9</v>
+      </c>
+      <c r="B180" s="2">
+        <v>28</v>
+      </c>
+      <c r="C180" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D180" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A181" s="2">
+        <v>9</v>
+      </c>
+      <c r="B181" s="2">
+        <v>29</v>
+      </c>
+      <c r="C181" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D181" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A182" s="2">
+        <v>9</v>
+      </c>
+      <c r="B182" s="2">
+        <v>30</v>
+      </c>
+      <c r="C182" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D182" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A183" s="2">
+        <v>9</v>
+      </c>
+      <c r="B183" s="2">
+        <v>31</v>
+      </c>
+      <c r="C183" s="2">
+        <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="D183" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A184" s="2">
+        <v>9</v>
+      </c>
+      <c r="B184" s="2">
+        <v>32</v>
+      </c>
+      <c r="C184" s="2">
+        <f t="shared" si="4"/>
+        <v>15</v>
+      </c>
+      <c r="D184" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A185" s="2">
+        <v>9</v>
+      </c>
+      <c r="B185" s="2">
+        <v>33</v>
+      </c>
+      <c r="C185" s="2">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="D185" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A186" s="2">
+        <v>9</v>
+      </c>
+      <c r="B186" s="2">
+        <v>34</v>
+      </c>
+      <c r="C186" s="2">
+        <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="D186" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A187" s="2">
+        <v>9</v>
+      </c>
+      <c r="B187" s="2">
+        <v>35</v>
+      </c>
+      <c r="C187" s="2">
+        <f t="shared" si="4"/>
+        <v>18</v>
+      </c>
+      <c r="D187" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A188" s="2">
+        <v>9</v>
+      </c>
+      <c r="B188" s="2">
+        <v>36</v>
+      </c>
+      <c r="C188" s="2">
+        <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="D188" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A189" s="2">
+        <v>9</v>
+      </c>
+      <c r="B189" s="2">
+        <v>37</v>
+      </c>
+      <c r="C189" s="2">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="D189" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A190" s="2">
+        <v>9</v>
+      </c>
+      <c r="B190" s="2">
+        <v>38</v>
+      </c>
+      <c r="C190" s="2">
+        <f t="shared" si="4"/>
+        <v>9</v>
+      </c>
+      <c r="D190" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A191" s="2">
+        <v>9</v>
+      </c>
+      <c r="B191" s="2">
+        <v>39</v>
+      </c>
+      <c r="C191" s="2">
+        <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="D191" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A192" s="2">
+        <v>9</v>
+      </c>
+      <c r="B192" s="2">
+        <v>40</v>
+      </c>
+      <c r="C192" s="2">
+        <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="D192" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A193" s="2">
+        <v>9</v>
+      </c>
+      <c r="B193" s="2">
+        <v>41</v>
+      </c>
+      <c r="C193" s="2">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="D193" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A194" s="2">
+        <v>9</v>
+      </c>
+      <c r="B194" s="2">
+        <v>42</v>
+      </c>
+      <c r="C194" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D194" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A195" s="2">
+        <v>9</v>
+      </c>
+      <c r="B195" s="2">
+        <v>43</v>
+      </c>
+      <c r="C195" s="2">
+        <f t="shared" ref="C195:C258" si="6">MOD(B195,12) +7</f>
+        <v>14</v>
+      </c>
+      <c r="D195" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A196" s="2">
+        <v>9</v>
+      </c>
+      <c r="B196" s="2">
+        <v>44</v>
+      </c>
+      <c r="C196" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="D196" s="5" t="str">
+        <f t="shared" ref="D196:D259" si="7">TEXT(DATE(2017,5,(B196/12)+1),"dddd")</f>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>9</v>
+      </c>
+      <c r="B197" s="2">
+        <v>45</v>
+      </c>
+      <c r="C197" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="D197" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>9</v>
+      </c>
+      <c r="B198" s="2">
+        <v>46</v>
+      </c>
+      <c r="C198" s="2">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="D198" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>9</v>
+      </c>
+      <c r="B199" s="2">
+        <v>47</v>
+      </c>
+      <c r="C199" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="D199" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A200" s="2">
+        <v>9</v>
+      </c>
+      <c r="B200" s="2">
+        <v>48</v>
+      </c>
+      <c r="C200" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="D200" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A201" s="2">
+        <v>9</v>
+      </c>
+      <c r="B201" s="2">
+        <v>49</v>
+      </c>
+      <c r="C201" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D201" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A202" s="2">
+        <v>9</v>
+      </c>
+      <c r="B202" s="2">
+        <v>50</v>
+      </c>
+      <c r="C202" s="2">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D202" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A203" s="2">
+        <v>9</v>
+      </c>
+      <c r="B203" s="2">
+        <v>51</v>
+      </c>
+      <c r="C203" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D203" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A204" s="2">
+        <v>9</v>
+      </c>
+      <c r="B204" s="2">
+        <v>52</v>
+      </c>
+      <c r="C204" s="2">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D204" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A205" s="2">
+        <v>9</v>
+      </c>
+      <c r="B205" s="2">
+        <v>53</v>
+      </c>
+      <c r="C205" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="D205" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A206" s="2">
+        <v>10</v>
+      </c>
+      <c r="B206" s="2">
+        <v>0</v>
+      </c>
+      <c r="C206" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="D206" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A207" s="2">
+        <v>10</v>
+      </c>
+      <c r="B207" s="2">
+        <v>1</v>
+      </c>
+      <c r="C207" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D207" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A208" s="2">
+        <v>10</v>
+      </c>
+      <c r="B208" s="2">
+        <v>2</v>
+      </c>
+      <c r="C208" s="2">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D208" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A209" s="2">
+        <v>10</v>
+      </c>
+      <c r="B209" s="2">
+        <v>3</v>
+      </c>
+      <c r="C209" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D209" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A210" s="2">
+        <v>10</v>
+      </c>
+      <c r="B210" s="2">
+        <v>4</v>
+      </c>
+      <c r="C210" s="2">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D210" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A211" s="2">
+        <v>10</v>
+      </c>
+      <c r="B211" s="2">
+        <v>5</v>
+      </c>
+      <c r="C211" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="D211" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A212" s="2">
+        <v>10</v>
+      </c>
+      <c r="B212" s="2">
+        <v>6</v>
+      </c>
+      <c r="C212" s="2">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="D212" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="213" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A213" s="2">
+        <v>10</v>
+      </c>
+      <c r="B213" s="2">
+        <v>7</v>
+      </c>
+      <c r="C213" s="2">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="D213" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="214" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A214" s="2">
+        <v>10</v>
+      </c>
+      <c r="B214" s="2">
+        <v>8</v>
+      </c>
+      <c r="C214" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="D214" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="215" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A215" s="2">
+        <v>10</v>
+      </c>
+      <c r="B215" s="2">
+        <v>9</v>
+      </c>
+      <c r="C215" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="D215" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="216" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A216" s="2">
+        <v>10</v>
+      </c>
+      <c r="B216" s="2">
+        <v>10</v>
+      </c>
+      <c r="C216" s="2">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="D216" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="217" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A217" s="2">
+        <v>10</v>
+      </c>
+      <c r="B217" s="2">
+        <v>11</v>
+      </c>
+      <c r="C217" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="D217" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="218" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A218" s="2">
+        <v>10</v>
+      </c>
+      <c r="B218" s="2">
+        <v>12</v>
+      </c>
+      <c r="C218" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="D218" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="219" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A219" s="2">
+        <v>10</v>
+      </c>
+      <c r="B219" s="2">
+        <v>13</v>
+      </c>
+      <c r="C219" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D219" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="220" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A220" s="2">
+        <v>10</v>
+      </c>
+      <c r="B220" s="2">
+        <v>14</v>
+      </c>
+      <c r="C220" s="2">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D220" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="221" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A221" s="2">
+        <v>10</v>
+      </c>
+      <c r="B221" s="2">
+        <v>15</v>
+      </c>
+      <c r="C221" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D221" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="222" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A222" s="2">
+        <v>10</v>
+      </c>
+      <c r="B222" s="2">
+        <v>16</v>
+      </c>
+      <c r="C222" s="2">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D222" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="223" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A223" s="2">
+        <v>10</v>
+      </c>
+      <c r="B223" s="2">
+        <v>17</v>
+      </c>
+      <c r="C223" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="D223" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="224" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A224" s="2">
+        <v>10</v>
+      </c>
+      <c r="B224" s="2">
+        <v>18</v>
+      </c>
+      <c r="C224" s="2">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="D224" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="225" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A225" s="2">
+        <v>10</v>
+      </c>
+      <c r="B225" s="2">
+        <v>19</v>
+      </c>
+      <c r="C225" s="2">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="D225" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="226" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A226" s="2">
+        <v>10</v>
+      </c>
+      <c r="B226" s="2">
+        <v>20</v>
+      </c>
+      <c r="C226" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="D226" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="227" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A227" s="2">
+        <v>10</v>
+      </c>
+      <c r="B227" s="2">
+        <v>21</v>
+      </c>
+      <c r="C227" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="D227" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="228" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A228" s="2">
+        <v>10</v>
+      </c>
+      <c r="B228" s="2">
+        <v>22</v>
+      </c>
+      <c r="C228" s="2">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="D228" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="229" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A229" s="2">
+        <v>10</v>
+      </c>
+      <c r="B229" s="2">
+        <v>23</v>
+      </c>
+      <c r="C229" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="D229" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="230" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A230" s="2">
+        <v>10</v>
+      </c>
+      <c r="B230" s="2">
+        <v>24</v>
+      </c>
+      <c r="C230" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="D230" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="231" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A231" s="2">
+        <v>11</v>
+      </c>
+      <c r="B231" s="2">
+        <v>0</v>
+      </c>
+      <c r="C231" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="D231" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="232" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A232" s="2">
+        <v>11</v>
+      </c>
+      <c r="B232" s="2">
+        <v>1</v>
+      </c>
+      <c r="C232" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D232" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="233" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A233" s="2">
+        <v>11</v>
+      </c>
+      <c r="B233" s="2">
+        <v>2</v>
+      </c>
+      <c r="C233" s="2">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D233" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="234" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A234" s="2">
+        <v>11</v>
+      </c>
+      <c r="B234" s="2">
+        <v>3</v>
+      </c>
+      <c r="C234" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D234" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="235" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A235" s="2">
+        <v>11</v>
+      </c>
+      <c r="B235" s="2">
+        <v>4</v>
+      </c>
+      <c r="C235" s="2">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D235" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="236" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A236" s="2">
+        <v>11</v>
+      </c>
+      <c r="B236" s="2">
+        <v>5</v>
+      </c>
+      <c r="C236" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="D236" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="237" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A237" s="2">
+        <v>11</v>
+      </c>
+      <c r="B237" s="2">
+        <v>6</v>
+      </c>
+      <c r="C237" s="2">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="D237" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="238" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A238" s="2">
+        <v>11</v>
+      </c>
+      <c r="B238" s="2">
+        <v>7</v>
+      </c>
+      <c r="C238" s="2">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="D238" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="239" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A239" s="2">
+        <v>11</v>
+      </c>
+      <c r="B239" s="2">
+        <v>8</v>
+      </c>
+      <c r="C239" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="D239" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="240" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A240" s="2">
+        <v>11</v>
+      </c>
+      <c r="B240" s="2">
+        <v>9</v>
+      </c>
+      <c r="C240" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="D240" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="241" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A241" s="2">
+        <v>11</v>
+      </c>
+      <c r="B241" s="2">
+        <v>10</v>
+      </c>
+      <c r="C241" s="2">
+        <f t="shared" si="6"/>
+        <v>17</v>
+      </c>
+      <c r="D241" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="242" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A242" s="2">
+        <v>11</v>
+      </c>
+      <c r="B242" s="2">
+        <v>11</v>
+      </c>
+      <c r="C242" s="2">
+        <f t="shared" si="6"/>
+        <v>18</v>
+      </c>
+      <c r="D242" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="243" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A243" s="2">
+        <v>11</v>
+      </c>
+      <c r="B243" s="2">
+        <v>12</v>
+      </c>
+      <c r="C243" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="D243" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="244" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A244" s="2">
+        <v>11</v>
+      </c>
+      <c r="B244" s="2">
+        <v>13</v>
+      </c>
+      <c r="C244" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D244" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="245" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A245" s="2">
+        <v>11</v>
+      </c>
+      <c r="B245" s="2">
+        <v>14</v>
+      </c>
+      <c r="C245" s="2">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D245" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="246" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A246" s="2">
+        <v>11</v>
+      </c>
+      <c r="B246" s="2">
+        <v>15</v>
+      </c>
+      <c r="C246" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D246" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="247" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A247" s="2">
+        <v>11</v>
+      </c>
+      <c r="B247" s="2">
+        <v>16</v>
+      </c>
+      <c r="C247" s="2">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D247" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="248" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A248" s="2">
+        <v>11</v>
+      </c>
+      <c r="B248" s="2">
+        <v>17</v>
+      </c>
+      <c r="C248" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="D248" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="249" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A249" s="2">
+        <v>12</v>
+      </c>
+      <c r="B249" s="2">
+        <v>36</v>
+      </c>
+      <c r="C249" s="2">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="D249" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="250" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A250" s="2">
+        <v>12</v>
+      </c>
+      <c r="B250" s="2">
+        <v>37</v>
+      </c>
+      <c r="C250" s="2">
+        <f t="shared" si="6"/>
+        <v>8</v>
+      </c>
+      <c r="D250" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="251" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A251" s="2">
+        <v>12</v>
+      </c>
+      <c r="B251" s="2">
+        <v>38</v>
+      </c>
+      <c r="C251" s="2">
+        <f t="shared" si="6"/>
+        <v>9</v>
+      </c>
+      <c r="D251" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="252" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A252" s="2">
+        <v>12</v>
+      </c>
+      <c r="B252" s="2">
+        <v>39</v>
+      </c>
+      <c r="C252" s="2">
+        <f t="shared" si="6"/>
+        <v>10</v>
+      </c>
+      <c r="D252" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="253" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A253" s="2">
+        <v>12</v>
+      </c>
+      <c r="B253" s="2">
+        <v>40</v>
+      </c>
+      <c r="C253" s="2">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+      <c r="D253" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="254" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A254" s="2">
+        <v>12</v>
+      </c>
+      <c r="B254" s="2">
+        <v>41</v>
+      </c>
+      <c r="C254" s="2">
+        <f t="shared" si="6"/>
+        <v>12</v>
+      </c>
+      <c r="D254" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="255" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A255" s="2">
+        <v>12</v>
+      </c>
+      <c r="B255" s="2">
+        <v>42</v>
+      </c>
+      <c r="C255" s="2">
+        <f t="shared" si="6"/>
+        <v>13</v>
+      </c>
+      <c r="D255" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="256" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A256" s="2">
+        <v>12</v>
+      </c>
+      <c r="B256" s="2">
+        <v>43</v>
+      </c>
+      <c r="C256" s="2">
+        <f t="shared" si="6"/>
+        <v>14</v>
+      </c>
+      <c r="D256" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="257" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A257" s="2">
+        <v>12</v>
+      </c>
+      <c r="B257" s="2">
+        <v>44</v>
+      </c>
+      <c r="C257" s="2">
+        <f t="shared" si="6"/>
+        <v>15</v>
+      </c>
+      <c r="D257" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="258" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A258" s="2">
+        <v>12</v>
+      </c>
+      <c r="B258" s="2">
+        <v>45</v>
+      </c>
+      <c r="C258" s="2">
+        <f t="shared" si="6"/>
+        <v>16</v>
+      </c>
+      <c r="D258" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="259" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A259" s="2">
+        <v>12</v>
+      </c>
+      <c r="B259" s="2">
+        <v>46</v>
+      </c>
+      <c r="C259" s="2">
+        <f t="shared" ref="C259:C310" si="8">MOD(B259,12) +7</f>
+        <v>17</v>
+      </c>
+      <c r="D259" s="5" t="str">
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="260" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A260" s="2">
+        <v>12</v>
+      </c>
+      <c r="B260" s="2">
+        <v>47</v>
+      </c>
+      <c r="C260" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D260" s="5" t="str">
+        <f t="shared" ref="D260:D310" si="9">TEXT(DATE(2017,5,(B260/12)+1),"dddd")</f>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="261" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A261" s="2">
+        <v>12</v>
+      </c>
+      <c r="B261" s="2">
+        <v>48</v>
+      </c>
+      <c r="C261" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D261" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="262" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A262" s="2">
+        <v>12</v>
+      </c>
+      <c r="B262" s="2">
+        <v>49</v>
+      </c>
+      <c r="C262" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D262" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="263" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A263" s="2">
+        <v>12</v>
+      </c>
+      <c r="B263" s="2">
+        <v>50</v>
+      </c>
+      <c r="C263" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="D263" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="264" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A264" s="2">
+        <v>12</v>
+      </c>
+      <c r="B264" s="2">
+        <v>51</v>
+      </c>
+      <c r="C264" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="D264" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="265" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A265" s="2">
+        <v>12</v>
+      </c>
+      <c r="B265" s="2">
+        <v>52</v>
+      </c>
+      <c r="C265" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="D265" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="266" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A266" s="2">
+        <v>12</v>
+      </c>
+      <c r="B266" s="2">
+        <v>53</v>
+      </c>
+      <c r="C266" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D266" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="267" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A267" s="2">
+        <v>13</v>
+      </c>
+      <c r="B267" s="2">
+        <v>20</v>
+      </c>
+      <c r="C267" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="D267" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="268" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A268" s="2">
+        <v>13</v>
+      </c>
+      <c r="B268" s="2">
+        <v>21</v>
+      </c>
+      <c r="C268" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="D268" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="269" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A269" s="2">
+        <v>13</v>
+      </c>
+      <c r="B269" s="2">
+        <v>22</v>
+      </c>
+      <c r="C269" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="D269" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="270" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A270" s="2">
+        <v>13</v>
+      </c>
+      <c r="B270" s="2">
+        <v>23</v>
+      </c>
+      <c r="C270" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D270" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="271" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A271" s="2">
+        <v>13</v>
+      </c>
+      <c r="B271" s="2">
+        <v>24</v>
+      </c>
+      <c r="C271" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D271" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="272" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A272" s="2">
+        <v>13</v>
+      </c>
+      <c r="B272" s="2">
+        <v>25</v>
+      </c>
+      <c r="C272" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D272" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="273" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A273" s="2">
+        <v>13</v>
+      </c>
+      <c r="B273" s="2">
+        <v>26</v>
+      </c>
+      <c r="C273" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="D273" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="274" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A274" s="2">
+        <v>13</v>
+      </c>
+      <c r="B274" s="2">
+        <v>27</v>
+      </c>
+      <c r="C274" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="D274" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="275" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A275" s="2">
+        <v>13</v>
+      </c>
+      <c r="B275" s="2">
+        <v>28</v>
+      </c>
+      <c r="C275" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="D275" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="276" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A276" s="2">
+        <v>13</v>
+      </c>
+      <c r="B276" s="2">
+        <v>29</v>
+      </c>
+      <c r="C276" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D276" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="277" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A277" s="2">
+        <v>13</v>
+      </c>
+      <c r="B277" s="2">
+        <v>30</v>
+      </c>
+      <c r="C277" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="D277" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="278" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A278" s="2">
+        <v>13</v>
+      </c>
+      <c r="B278" s="2">
+        <v>31</v>
+      </c>
+      <c r="C278" s="2">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="D278" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="279" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A279" s="2">
+        <v>13</v>
+      </c>
+      <c r="B279" s="2">
+        <v>32</v>
+      </c>
+      <c r="C279" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="D279" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="280" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A280" s="2">
+        <v>13</v>
+      </c>
+      <c r="B280" s="2">
+        <v>33</v>
+      </c>
+      <c r="C280" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="D280" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="281" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A281" s="2">
+        <v>13</v>
+      </c>
+      <c r="B281" s="2">
+        <v>34</v>
+      </c>
+      <c r="C281" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="D281" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="282" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A282" s="2">
+        <v>13</v>
+      </c>
+      <c r="B282" s="2">
+        <v>35</v>
+      </c>
+      <c r="C282" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D282" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="283" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A283" s="2">
+        <v>13</v>
+      </c>
+      <c r="B283" s="2">
+        <v>36</v>
+      </c>
+      <c r="C283" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D283" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="284" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A284" s="2">
+        <v>14</v>
+      </c>
+      <c r="B284" s="2">
+        <v>37</v>
+      </c>
+      <c r="C284" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D284" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="285" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A285" s="2">
+        <v>14</v>
+      </c>
+      <c r="B285" s="2">
+        <v>10</v>
+      </c>
+      <c r="C285" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="D285" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="286" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A286" s="2">
+        <v>14</v>
+      </c>
+      <c r="B286" s="2">
+        <v>11</v>
+      </c>
+      <c r="C286" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D286" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>poniedziałek</v>
+      </c>
+    </row>
+    <row r="287" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A287" s="2">
+        <v>14</v>
+      </c>
+      <c r="B287" s="2">
+        <v>12</v>
+      </c>
+      <c r="C287" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D287" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="288" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A288" s="2">
+        <v>14</v>
+      </c>
+      <c r="B288" s="2">
+        <v>13</v>
+      </c>
+      <c r="C288" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D288" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="289" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A289" s="2">
+        <v>14</v>
+      </c>
+      <c r="B289" s="2">
+        <v>14</v>
+      </c>
+      <c r="C289" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="D289" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="290" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A290" s="2">
+        <v>14</v>
+      </c>
+      <c r="B290" s="2">
+        <v>15</v>
+      </c>
+      <c r="C290" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="D290" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="291" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A291" s="2">
+        <v>14</v>
+      </c>
+      <c r="B291" s="2">
+        <v>16</v>
+      </c>
+      <c r="C291" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="D291" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="292" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A292" s="2">
+        <v>14</v>
+      </c>
+      <c r="B292" s="2">
+        <v>17</v>
+      </c>
+      <c r="C292" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D292" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="293" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A293" s="2">
+        <v>14</v>
+      </c>
+      <c r="B293" s="2">
+        <v>18</v>
+      </c>
+      <c r="C293" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="D293" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="294" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A294" s="2">
+        <v>14</v>
+      </c>
+      <c r="B294" s="2">
+        <v>19</v>
+      </c>
+      <c r="C294" s="2">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="D294" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="295" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A295" s="2">
+        <v>14</v>
+      </c>
+      <c r="B295" s="2">
+        <v>20</v>
+      </c>
+      <c r="C295" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="D295" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="296" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A296" s="2">
+        <v>14</v>
+      </c>
+      <c r="B296" s="2">
+        <v>21</v>
+      </c>
+      <c r="C296" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="D296" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="297" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A297" s="2">
+        <v>14</v>
+      </c>
+      <c r="B297" s="2">
+        <v>22</v>
+      </c>
+      <c r="C297" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="D297" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="298" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A298" s="2">
+        <v>14</v>
+      </c>
+      <c r="B298" s="2">
+        <v>23</v>
+      </c>
+      <c r="C298" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D298" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="299" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A299" s="2">
+        <v>14</v>
+      </c>
+      <c r="B299" s="2">
+        <v>24</v>
+      </c>
+      <c r="C299" s="2">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="D299" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="300" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A300" s="2">
+        <v>14</v>
+      </c>
+      <c r="B300" s="2">
+        <v>25</v>
+      </c>
+      <c r="C300" s="2">
+        <f t="shared" si="8"/>
+        <v>8</v>
+      </c>
+      <c r="D300" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="301" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A301" s="2">
+        <v>14</v>
+      </c>
+      <c r="B301" s="2">
+        <v>26</v>
+      </c>
+      <c r="C301" s="2">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="D301" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="302" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A302" s="2">
+        <v>14</v>
+      </c>
+      <c r="B302" s="2">
+        <v>27</v>
+      </c>
+      <c r="C302" s="2">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="D302" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="303" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A303" s="2">
+        <v>14</v>
+      </c>
+      <c r="B303" s="2">
+        <v>28</v>
+      </c>
+      <c r="C303" s="2">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="D303" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="304" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A304" s="2">
+        <v>14</v>
+      </c>
+      <c r="B304" s="2">
+        <v>29</v>
+      </c>
+      <c r="C304" s="2">
+        <f t="shared" si="8"/>
+        <v>12</v>
+      </c>
+      <c r="D304" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="305" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A305" s="2">
+        <v>14</v>
+      </c>
+      <c r="B305" s="2">
+        <v>30</v>
+      </c>
+      <c r="C305" s="2">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="D305" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="306" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A306" s="2">
+        <v>14</v>
+      </c>
+      <c r="B306" s="2">
+        <v>31</v>
+      </c>
+      <c r="C306" s="2">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="D306" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="307" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A307" s="2">
+        <v>14</v>
+      </c>
+      <c r="B307" s="2">
+        <v>32</v>
+      </c>
+      <c r="C307" s="2">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="D307" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="308" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A308" s="2">
+        <v>14</v>
+      </c>
+      <c r="B308" s="2">
+        <v>33</v>
+      </c>
+      <c r="C308" s="2">
+        <f t="shared" si="8"/>
+        <v>16</v>
+      </c>
+      <c r="D308" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="309" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A309" s="2">
+        <v>14</v>
+      </c>
+      <c r="B309" s="2">
+        <v>34</v>
+      </c>
+      <c r="C309" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="D309" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="310" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A310" s="2">
+        <v>14</v>
+      </c>
+      <c r="B310" s="2">
+        <v>35</v>
+      </c>
+      <c r="C310" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D310" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState ref="A2:A40">
+    <sortCondition ref="A2:A40"/>
+  </sortState>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/ProjectCore/ProjectData/ProfessorData.xlsx
+++ b/ProjectCore/ProjectData/ProfessorData.xlsx
@@ -736,10 +736,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E310"/>
+  <dimension ref="A1:E349"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K18" sqref="K18"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -789,7 +789,7 @@
         <v>1</v>
       </c>
       <c r="C3" s="2">
-        <f t="shared" ref="C3:C66" si="0">MOD(B3,12) +7</f>
+        <f t="shared" ref="C3:C68" si="0">MOD(B3,12) +7</f>
         <v>8</v>
       </c>
       <c r="D3" s="5" t="str">
@@ -810,7 +810,7 @@
         <v>9</v>
       </c>
       <c r="D4" s="5" t="str">
-        <f t="shared" ref="D4:D67" si="1">TEXT(DATE(2017,5,(B4/12)+1),"dddd")</f>
+        <f t="shared" ref="D4:D69" si="1">TEXT(DATE(2017,5,(B4/12)+1),"dddd")</f>
         <v>poniedziałek</v>
       </c>
     </row>
@@ -1219,15 +1219,15 @@
         <v>3</v>
       </c>
       <c r="B30" s="2">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C30" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>7</v>
       </c>
       <c r="D30" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wtorek</v>
+        <v>środa</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
@@ -1235,11 +1235,11 @@
         <v>3</v>
       </c>
       <c r="B31" s="2">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C31" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="D31" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1251,11 +1251,11 @@
         <v>3</v>
       </c>
       <c r="B32" s="2">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C32" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D32" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1267,11 +1267,11 @@
         <v>3</v>
       </c>
       <c r="B33" s="2">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C33" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="D33" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1283,11 +1283,11 @@
         <v>3</v>
       </c>
       <c r="B34" s="2">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C34" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D34" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1299,11 +1299,11 @@
         <v>3</v>
       </c>
       <c r="B35" s="2">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C35" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="D35" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1315,11 +1315,11 @@
         <v>3</v>
       </c>
       <c r="B36" s="2">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C36" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D36" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1331,11 +1331,11 @@
         <v>3</v>
       </c>
       <c r="B37" s="2">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C37" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D37" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1344,14 +1344,14 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B38" s="2">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C38" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D38" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1360,14 +1360,14 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B39" s="2">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C39" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D39" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1379,11 +1379,11 @@
         <v>4</v>
       </c>
       <c r="B40" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C40" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D40" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1395,11 +1395,11 @@
         <v>4</v>
       </c>
       <c r="B41" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C41" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D41" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1411,11 +1411,11 @@
         <v>4</v>
       </c>
       <c r="B42" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D42" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1427,15 +1427,15 @@
         <v>4</v>
       </c>
       <c r="B43" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C43" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D43" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>czwartek</v>
+        <v>środa</v>
       </c>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.2">
@@ -1443,15 +1443,15 @@
         <v>4</v>
       </c>
       <c r="B44" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C44" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D44" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>czwartek</v>
+        <v>środa</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.2">
@@ -1459,11 +1459,11 @@
         <v>4</v>
       </c>
       <c r="B45" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C45" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D45" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1475,11 +1475,11 @@
         <v>4</v>
       </c>
       <c r="B46" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C46" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D46" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1491,11 +1491,11 @@
         <v>4</v>
       </c>
       <c r="B47" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C47" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D47" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1507,11 +1507,11 @@
         <v>4</v>
       </c>
       <c r="B48" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C48" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D48" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1523,11 +1523,11 @@
         <v>4</v>
       </c>
       <c r="B49" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C49" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D49" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1539,11 +1539,11 @@
         <v>4</v>
       </c>
       <c r="B50" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C50" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D50" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1555,11 +1555,11 @@
         <v>4</v>
       </c>
       <c r="B51" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C51" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D51" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1571,11 +1571,11 @@
         <v>4</v>
       </c>
       <c r="B52" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C52" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D52" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1584,34 +1584,34 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B53" s="2">
-        <v>12</v>
+        <v>44</v>
       </c>
       <c r="C53" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="D53" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wtorek</v>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B54" s="2">
-        <v>13</v>
+        <v>45</v>
       </c>
       <c r="C54" s="2">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="D54" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>wtorek</v>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="55" spans="1:4" x14ac:dyDescent="0.2">
@@ -1619,11 +1619,11 @@
         <v>5</v>
       </c>
       <c r="B55" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C55" s="2">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D55" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1635,11 +1635,11 @@
         <v>5</v>
       </c>
       <c r="B56" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C56" s="2">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D56" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1651,11 +1651,11 @@
         <v>5</v>
       </c>
       <c r="B57" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C57" s="2">
         <f t="shared" si="0"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D57" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1667,11 +1667,11 @@
         <v>5</v>
       </c>
       <c r="B58" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C58" s="2">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D58" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1683,11 +1683,11 @@
         <v>5</v>
       </c>
       <c r="B59" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C59" s="2">
         <f t="shared" si="0"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D59" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1699,11 +1699,11 @@
         <v>5</v>
       </c>
       <c r="B60" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C60" s="2">
         <f t="shared" si="0"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D60" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1715,11 +1715,11 @@
         <v>5</v>
       </c>
       <c r="B61" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C61" s="2">
         <f t="shared" si="0"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D61" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1731,11 +1731,11 @@
         <v>5</v>
       </c>
       <c r="B62" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C62" s="2">
         <f t="shared" si="0"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D62" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1747,11 +1747,11 @@
         <v>5</v>
       </c>
       <c r="B63" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C63" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D63" s="5" t="str">
         <f t="shared" si="1"/>
@@ -1760,34 +1760,34 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B64" s="2">
-        <v>46</v>
+        <v>21</v>
       </c>
       <c r="C64" s="2">
         <f t="shared" si="0"/>
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D64" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>czwartek</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B65" s="2">
-        <v>47</v>
+        <v>22</v>
       </c>
       <c r="C65" s="2">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D65" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>czwartek</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.2">
@@ -1795,15 +1795,15 @@
         <v>6</v>
       </c>
       <c r="B66" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C66" s="2">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D66" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>piątek</v>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.2">
@@ -1811,15 +1811,15 @@
         <v>6</v>
       </c>
       <c r="B67" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C67" s="2">
-        <f t="shared" ref="C67:C130" si="2">MOD(B67,12) +7</f>
-        <v>8</v>
+        <f t="shared" si="0"/>
+        <v>18</v>
       </c>
       <c r="D67" s="5" t="str">
         <f t="shared" si="1"/>
-        <v>piątek</v>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.2">
@@ -1827,14 +1827,14 @@
         <v>6</v>
       </c>
       <c r="B68" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C68" s="2">
-        <f t="shared" si="2"/>
-        <v>9</v>
+        <f t="shared" si="0"/>
+        <v>7</v>
       </c>
       <c r="D68" s="5" t="str">
-        <f t="shared" ref="D68:D131" si="3">TEXT(DATE(2017,5,(B68/12)+1),"dddd")</f>
+        <f t="shared" si="1"/>
         <v>piątek</v>
       </c>
     </row>
@@ -1843,14 +1843,14 @@
         <v>6</v>
       </c>
       <c r="B69" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C69" s="2">
-        <f t="shared" si="2"/>
-        <v>10</v>
+        <f t="shared" ref="C69:C132" si="2">MOD(B69,12) +7</f>
+        <v>8</v>
       </c>
       <c r="D69" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" si="1"/>
         <v>piątek</v>
       </c>
     </row>
@@ -1859,27 +1859,27 @@
         <v>6</v>
       </c>
       <c r="B70" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C70" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D70" s="5" t="str">
-        <f t="shared" si="3"/>
+        <f t="shared" ref="D70:D133" si="3">TEXT(DATE(2017,5,(B70/12)+1),"dddd")</f>
         <v>piątek</v>
       </c>
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B71" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C71" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D71" s="5" t="str">
         <f t="shared" si="3"/>
@@ -1888,14 +1888,14 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B72" s="2">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="C72" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D72" s="5" t="str">
         <f t="shared" si="3"/>
@@ -1907,11 +1907,11 @@
         <v>7</v>
       </c>
       <c r="B73" s="2">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="C73" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D73" s="5" t="str">
         <f t="shared" si="3"/>
@@ -1923,11 +1923,11 @@
         <v>7</v>
       </c>
       <c r="B74" s="2">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="C74" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D74" s="5" t="str">
         <f t="shared" si="3"/>
@@ -1939,11 +1939,11 @@
         <v>7</v>
       </c>
       <c r="B75" s="2">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="C75" s="2">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D75" s="5" t="str">
         <f t="shared" si="3"/>
@@ -1955,11 +1955,11 @@
         <v>7</v>
       </c>
       <c r="B76" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C76" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D76" s="5" t="str">
         <f t="shared" si="3"/>
@@ -1971,11 +1971,11 @@
         <v>7</v>
       </c>
       <c r="B77" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C77" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D77" s="5" t="str">
         <f t="shared" si="3"/>
@@ -1987,15 +1987,15 @@
         <v>7</v>
       </c>
       <c r="B78" s="2">
-        <v>0</v>
+        <v>58</v>
       </c>
       <c r="C78" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D78" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>poniedziałek</v>
+        <v>piątek</v>
       </c>
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.2">
@@ -2003,15 +2003,15 @@
         <v>7</v>
       </c>
       <c r="B79" s="2">
-        <v>1</v>
+        <v>59</v>
       </c>
       <c r="C79" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D79" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>poniedziałek</v>
+        <v>piątek</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.2">
@@ -2019,11 +2019,11 @@
         <v>7</v>
       </c>
       <c r="B80" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C80" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D80" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2035,11 +2035,11 @@
         <v>7</v>
       </c>
       <c r="B81" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C81" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D81" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2051,11 +2051,11 @@
         <v>7</v>
       </c>
       <c r="B82" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C82" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D82" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2067,11 +2067,11 @@
         <v>7</v>
       </c>
       <c r="B83" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C83" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D83" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2083,11 +2083,11 @@
         <v>7</v>
       </c>
       <c r="B84" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C84" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D84" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2099,11 +2099,11 @@
         <v>7</v>
       </c>
       <c r="B85" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C85" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D85" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2115,11 +2115,11 @@
         <v>7</v>
       </c>
       <c r="B86" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C86" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D86" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2131,11 +2131,11 @@
         <v>7</v>
       </c>
       <c r="B87" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C87" s="2">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D87" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2147,11 +2147,11 @@
         <v>7</v>
       </c>
       <c r="B88" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C88" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D88" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2163,11 +2163,11 @@
         <v>7</v>
       </c>
       <c r="B89" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C89" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D89" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2179,15 +2179,15 @@
         <v>7</v>
       </c>
       <c r="B90" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C90" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D90" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="91" spans="1:4" x14ac:dyDescent="0.2">
@@ -2195,15 +2195,15 @@
         <v>7</v>
       </c>
       <c r="B91" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C91" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D91" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="92" spans="1:4" x14ac:dyDescent="0.2">
@@ -2211,11 +2211,11 @@
         <v>7</v>
       </c>
       <c r="B92" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C92" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D92" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2227,11 +2227,11 @@
         <v>7</v>
       </c>
       <c r="B93" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C93" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D93" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2243,11 +2243,11 @@
         <v>7</v>
       </c>
       <c r="B94" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C94" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D94" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2259,11 +2259,11 @@
         <v>7</v>
       </c>
       <c r="B95" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C95" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D95" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2275,11 +2275,11 @@
         <v>7</v>
       </c>
       <c r="B96" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C96" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D96" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2291,11 +2291,11 @@
         <v>7</v>
       </c>
       <c r="B97" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C97" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D97" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2307,11 +2307,11 @@
         <v>7</v>
       </c>
       <c r="B98" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C98" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D98" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2323,11 +2323,11 @@
         <v>7</v>
       </c>
       <c r="B99" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C99" s="2">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D99" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2339,11 +2339,11 @@
         <v>7</v>
       </c>
       <c r="B100" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C100" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D100" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2355,11 +2355,11 @@
         <v>7</v>
       </c>
       <c r="B101" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C101" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D101" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2371,15 +2371,15 @@
         <v>7</v>
       </c>
       <c r="B102" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C102" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D102" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>środa</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="103" spans="1:4" x14ac:dyDescent="0.2">
@@ -2387,15 +2387,15 @@
         <v>7</v>
       </c>
       <c r="B103" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C103" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D103" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>środa</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="104" spans="1:4" x14ac:dyDescent="0.2">
@@ -2403,11 +2403,11 @@
         <v>7</v>
       </c>
       <c r="B104" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C104" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D104" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2419,11 +2419,11 @@
         <v>7</v>
       </c>
       <c r="B105" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C105" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D105" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2435,11 +2435,11 @@
         <v>7</v>
       </c>
       <c r="B106" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C106" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D106" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2451,11 +2451,11 @@
         <v>7</v>
       </c>
       <c r="B107" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C107" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D107" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2467,11 +2467,11 @@
         <v>7</v>
       </c>
       <c r="B108" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C108" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D108" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2483,11 +2483,11 @@
         <v>7</v>
       </c>
       <c r="B109" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C109" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D109" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2496,14 +2496,14 @@
     </row>
     <row r="110" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B110" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C110" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D110" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2512,14 +2512,14 @@
     </row>
     <row r="111" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B111" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C111" s="2">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D111" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2531,11 +2531,11 @@
         <v>8</v>
       </c>
       <c r="B112" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C112" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D112" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2547,11 +2547,11 @@
         <v>8</v>
       </c>
       <c r="B113" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C113" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D113" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2563,15 +2563,15 @@
         <v>8</v>
       </c>
       <c r="B114" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C114" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D114" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>czwartek</v>
+        <v>środa</v>
       </c>
     </row>
     <row r="115" spans="1:4" x14ac:dyDescent="0.2">
@@ -2579,15 +2579,15 @@
         <v>8</v>
       </c>
       <c r="B115" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C115" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D115" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>czwartek</v>
+        <v>środa</v>
       </c>
     </row>
     <row r="116" spans="1:4" x14ac:dyDescent="0.2">
@@ -2595,11 +2595,11 @@
         <v>8</v>
       </c>
       <c r="B116" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C116" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D116" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2611,11 +2611,11 @@
         <v>8</v>
       </c>
       <c r="B117" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C117" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D117" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2627,11 +2627,11 @@
         <v>8</v>
       </c>
       <c r="B118" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C118" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D118" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2643,11 +2643,11 @@
         <v>8</v>
       </c>
       <c r="B119" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C119" s="2">
         <f t="shared" si="2"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D119" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2659,11 +2659,11 @@
         <v>8</v>
       </c>
       <c r="B120" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C120" s="2">
         <f t="shared" si="2"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D120" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2675,11 +2675,11 @@
         <v>8</v>
       </c>
       <c r="B121" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C121" s="2">
         <f t="shared" si="2"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D121" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2691,11 +2691,11 @@
         <v>8</v>
       </c>
       <c r="B122" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C122" s="2">
         <f t="shared" si="2"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D122" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2707,11 +2707,11 @@
         <v>8</v>
       </c>
       <c r="B123" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C123" s="2">
         <f t="shared" si="2"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D123" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2723,11 +2723,11 @@
         <v>8</v>
       </c>
       <c r="B124" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C124" s="2">
         <f t="shared" si="2"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D124" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2739,11 +2739,11 @@
         <v>8</v>
       </c>
       <c r="B125" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C125" s="2">
         <f t="shared" si="2"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D125" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2755,15 +2755,15 @@
         <v>8</v>
       </c>
       <c r="B126" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C126" s="2">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D126" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>piątek</v>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="127" spans="1:4" x14ac:dyDescent="0.2">
@@ -2771,15 +2771,15 @@
         <v>8</v>
       </c>
       <c r="B127" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C127" s="2">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D127" s="5" t="str">
         <f t="shared" si="3"/>
-        <v>piątek</v>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="128" spans="1:4" x14ac:dyDescent="0.2">
@@ -2787,11 +2787,11 @@
         <v>8</v>
       </c>
       <c r="B128" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C128" s="2">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D128" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2803,11 +2803,11 @@
         <v>8</v>
       </c>
       <c r="B129" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C129" s="2">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D129" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2819,11 +2819,11 @@
         <v>8</v>
       </c>
       <c r="B130" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C130" s="2">
         <f t="shared" si="2"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D130" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2835,11 +2835,11 @@
         <v>8</v>
       </c>
       <c r="B131" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C131" s="2">
-        <f t="shared" ref="C131:C194" si="4">MOD(B131,12) +7</f>
-        <v>12</v>
+        <f t="shared" si="2"/>
+        <v>10</v>
       </c>
       <c r="D131" s="5" t="str">
         <f t="shared" si="3"/>
@@ -2851,59 +2851,59 @@
         <v>8</v>
       </c>
       <c r="B132" s="2">
+        <v>52</v>
+      </c>
+      <c r="C132" s="2">
+        <f t="shared" si="2"/>
+        <v>11</v>
+      </c>
+      <c r="D132" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A133" s="2">
+        <v>8</v>
+      </c>
+      <c r="B133" s="2">
+        <v>53</v>
+      </c>
+      <c r="C133" s="2">
+        <f t="shared" ref="C133:C196" si="4">MOD(B133,12) +7</f>
+        <v>12</v>
+      </c>
+      <c r="D133" s="5" t="str">
+        <f t="shared" si="3"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A134" s="2">
+        <v>8</v>
+      </c>
+      <c r="B134" s="2">
         <v>54</v>
       </c>
-      <c r="C132" s="2">
+      <c r="C134" s="2">
         <f t="shared" si="4"/>
         <v>13</v>
       </c>
-      <c r="D132" s="5" t="str">
-        <f t="shared" ref="D132:D195" si="5">TEXT(DATE(2017,5,(B132/12)+1),"dddd")</f>
+      <c r="D134" s="5" t="str">
+        <f t="shared" ref="D134:D197" si="5">TEXT(DATE(2017,5,(B134/12)+1),"dddd")</f>
         <v>piątek</v>
       </c>
     </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A133" s="2">
-        <v>8</v>
-      </c>
-      <c r="B133" s="2">
+    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A135" s="2">
+        <v>8</v>
+      </c>
+      <c r="B135" s="2">
         <v>55</v>
       </c>
-      <c r="C133" s="2">
+      <c r="C135" s="2">
         <f t="shared" si="4"/>
         <v>14</v>
-      </c>
-      <c r="D133" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>piątek</v>
-      </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A134" s="2">
-        <v>8</v>
-      </c>
-      <c r="B134" s="2">
-        <v>56</v>
-      </c>
-      <c r="C134" s="2">
-        <f t="shared" si="4"/>
-        <v>15</v>
-      </c>
-      <c r="D134" s="5" t="str">
-        <f t="shared" si="5"/>
-        <v>piątek</v>
-      </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A135" s="2">
-        <v>8</v>
-      </c>
-      <c r="B135" s="2">
-        <v>57</v>
-      </c>
-      <c r="C135" s="2">
-        <f t="shared" si="4"/>
-        <v>16</v>
       </c>
       <c r="D135" s="5" t="str">
         <f t="shared" si="5"/>
@@ -2915,11 +2915,11 @@
         <v>8</v>
       </c>
       <c r="B136" s="2">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C136" s="2">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D136" s="5" t="str">
         <f t="shared" si="5"/>
@@ -2931,11 +2931,11 @@
         <v>8</v>
       </c>
       <c r="B137" s="2">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C137" s="2">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D137" s="5" t="str">
         <f t="shared" si="5"/>
@@ -2947,7 +2947,7 @@
         <v>8</v>
       </c>
       <c r="B138" s="2">
-        <v>10</v>
+        <v>58</v>
       </c>
       <c r="C138" s="2">
         <f t="shared" si="4"/>
@@ -2955,7 +2955,7 @@
       </c>
       <c r="D138" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>poniedziałek</v>
+        <v>piątek</v>
       </c>
     </row>
     <row r="139" spans="1:4" x14ac:dyDescent="0.2">
@@ -2963,7 +2963,7 @@
         <v>8</v>
       </c>
       <c r="B139" s="2">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="C139" s="2">
         <f t="shared" si="4"/>
@@ -2971,7 +2971,7 @@
       </c>
       <c r="D139" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>poniedziałek</v>
+        <v>piątek</v>
       </c>
     </row>
     <row r="140" spans="1:4" x14ac:dyDescent="0.2">
@@ -2979,15 +2979,15 @@
         <v>8</v>
       </c>
       <c r="B140" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C140" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D140" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="141" spans="1:4" x14ac:dyDescent="0.2">
@@ -2995,15 +2995,15 @@
         <v>8</v>
       </c>
       <c r="B141" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C141" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D141" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="142" spans="1:4" x14ac:dyDescent="0.2">
@@ -3011,11 +3011,11 @@
         <v>8</v>
       </c>
       <c r="B142" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C142" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D142" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3027,11 +3027,11 @@
         <v>8</v>
       </c>
       <c r="B143" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C143" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D143" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3043,11 +3043,11 @@
         <v>8</v>
       </c>
       <c r="B144" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C144" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D144" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3059,11 +3059,11 @@
         <v>8</v>
       </c>
       <c r="B145" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C145" s="2">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D145" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3075,11 +3075,11 @@
         <v>8</v>
       </c>
       <c r="B146" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C146" s="2">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D146" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3091,11 +3091,11 @@
         <v>8</v>
       </c>
       <c r="B147" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C147" s="2">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D147" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3107,11 +3107,11 @@
         <v>8</v>
       </c>
       <c r="B148" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C148" s="2">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D148" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3123,11 +3123,11 @@
         <v>8</v>
       </c>
       <c r="B149" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C149" s="2">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D149" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3139,11 +3139,11 @@
         <v>8</v>
       </c>
       <c r="B150" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C150" s="2">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D150" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3155,11 +3155,11 @@
         <v>8</v>
       </c>
       <c r="B151" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C151" s="2">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D151" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3168,34 +3168,34 @@
     </row>
     <row r="152" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B152" s="2">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="C152" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D152" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>poniedziałek</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="153" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B153" s="2">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C153" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D153" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>poniedziałek</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="154" spans="1:4" x14ac:dyDescent="0.2">
@@ -3203,11 +3203,11 @@
         <v>9</v>
       </c>
       <c r="B154" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C154" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D154" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3219,11 +3219,11 @@
         <v>9</v>
       </c>
       <c r="B155" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C155" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D155" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3235,11 +3235,11 @@
         <v>9</v>
       </c>
       <c r="B156" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C156" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D156" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3251,11 +3251,11 @@
         <v>9</v>
       </c>
       <c r="B157" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C157" s="2">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D157" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3267,11 +3267,11 @@
         <v>9</v>
       </c>
       <c r="B158" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C158" s="2">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D158" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3283,11 +3283,11 @@
         <v>9</v>
       </c>
       <c r="B159" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C159" s="2">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D159" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3299,11 +3299,11 @@
         <v>9</v>
       </c>
       <c r="B160" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C160" s="2">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D160" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3315,11 +3315,11 @@
         <v>9</v>
       </c>
       <c r="B161" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C161" s="2">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D161" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3331,11 +3331,11 @@
         <v>9</v>
       </c>
       <c r="B162" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C162" s="2">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D162" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3347,11 +3347,11 @@
         <v>9</v>
       </c>
       <c r="B163" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C163" s="2">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D163" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3363,15 +3363,15 @@
         <v>9</v>
       </c>
       <c r="B164" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C164" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D164" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="165" spans="1:4" x14ac:dyDescent="0.2">
@@ -3379,15 +3379,15 @@
         <v>9</v>
       </c>
       <c r="B165" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C165" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D165" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="166" spans="1:4" x14ac:dyDescent="0.2">
@@ -3395,11 +3395,11 @@
         <v>9</v>
       </c>
       <c r="B166" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C166" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D166" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3411,11 +3411,11 @@
         <v>9</v>
       </c>
       <c r="B167" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C167" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D167" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3427,11 +3427,11 @@
         <v>9</v>
       </c>
       <c r="B168" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C168" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D168" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3443,11 +3443,11 @@
         <v>9</v>
       </c>
       <c r="B169" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C169" s="2">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D169" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3459,11 +3459,11 @@
         <v>9</v>
       </c>
       <c r="B170" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C170" s="2">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D170" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3475,11 +3475,11 @@
         <v>9</v>
       </c>
       <c r="B171" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C171" s="2">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D171" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3491,11 +3491,11 @@
         <v>9</v>
       </c>
       <c r="B172" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C172" s="2">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D172" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3507,11 +3507,11 @@
         <v>9</v>
       </c>
       <c r="B173" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C173" s="2">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D173" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3523,11 +3523,11 @@
         <v>9</v>
       </c>
       <c r="B174" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C174" s="2">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D174" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3539,11 +3539,11 @@
         <v>9</v>
       </c>
       <c r="B175" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C175" s="2">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D175" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3555,15 +3555,15 @@
         <v>9</v>
       </c>
       <c r="B176" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C176" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D176" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>środa</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="177" spans="1:4" x14ac:dyDescent="0.2">
@@ -3571,15 +3571,15 @@
         <v>9</v>
       </c>
       <c r="B177" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C177" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D177" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>środa</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="178" spans="1:4" x14ac:dyDescent="0.2">
@@ -3587,11 +3587,11 @@
         <v>9</v>
       </c>
       <c r="B178" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C178" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D178" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3603,11 +3603,11 @@
         <v>9</v>
       </c>
       <c r="B179" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C179" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D179" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3619,11 +3619,11 @@
         <v>9</v>
       </c>
       <c r="B180" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C180" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D180" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3635,11 +3635,11 @@
         <v>9</v>
       </c>
       <c r="B181" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C181" s="2">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D181" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3651,11 +3651,11 @@
         <v>9</v>
       </c>
       <c r="B182" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C182" s="2">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D182" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3667,11 +3667,11 @@
         <v>9</v>
       </c>
       <c r="B183" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C183" s="2">
         <f t="shared" si="4"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D183" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3683,11 +3683,11 @@
         <v>9</v>
       </c>
       <c r="B184" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C184" s="2">
         <f t="shared" si="4"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D184" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3699,11 +3699,11 @@
         <v>9</v>
       </c>
       <c r="B185" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C185" s="2">
         <f t="shared" si="4"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D185" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3715,11 +3715,11 @@
         <v>9</v>
       </c>
       <c r="B186" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C186" s="2">
         <f t="shared" si="4"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D186" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3731,11 +3731,11 @@
         <v>9</v>
       </c>
       <c r="B187" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C187" s="2">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D187" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3747,15 +3747,15 @@
         <v>9</v>
       </c>
       <c r="B188" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C188" s="2">
         <f t="shared" si="4"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D188" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>czwartek</v>
+        <v>środa</v>
       </c>
     </row>
     <row r="189" spans="1:4" x14ac:dyDescent="0.2">
@@ -3763,15 +3763,15 @@
         <v>9</v>
       </c>
       <c r="B189" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C189" s="2">
         <f t="shared" si="4"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D189" s="5" t="str">
         <f t="shared" si="5"/>
-        <v>czwartek</v>
+        <v>środa</v>
       </c>
     </row>
     <row r="190" spans="1:4" x14ac:dyDescent="0.2">
@@ -3779,11 +3779,11 @@
         <v>9</v>
       </c>
       <c r="B190" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C190" s="2">
         <f t="shared" si="4"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D190" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3795,11 +3795,11 @@
         <v>9</v>
       </c>
       <c r="B191" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C191" s="2">
         <f t="shared" si="4"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D191" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3811,11 +3811,11 @@
         <v>9</v>
       </c>
       <c r="B192" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C192" s="2">
         <f t="shared" si="4"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D192" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3827,11 +3827,11 @@
         <v>9</v>
       </c>
       <c r="B193" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C193" s="2">
         <f t="shared" si="4"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D193" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3843,11 +3843,11 @@
         <v>9</v>
       </c>
       <c r="B194" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C194" s="2">
         <f t="shared" si="4"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D194" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3859,11 +3859,11 @@
         <v>9</v>
       </c>
       <c r="B195" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C195" s="2">
-        <f t="shared" ref="C195:C258" si="6">MOD(B195,12) +7</f>
-        <v>14</v>
+        <f t="shared" si="4"/>
+        <v>12</v>
       </c>
       <c r="D195" s="5" t="str">
         <f t="shared" si="5"/>
@@ -3875,59 +3875,59 @@
         <v>9</v>
       </c>
       <c r="B196" s="2">
+        <v>42</v>
+      </c>
+      <c r="C196" s="2">
+        <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="D196" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A197" s="2">
+        <v>9</v>
+      </c>
+      <c r="B197" s="2">
+        <v>43</v>
+      </c>
+      <c r="C197" s="2">
+        <f t="shared" ref="C197:C260" si="6">MOD(B197,12) +7</f>
+        <v>14</v>
+      </c>
+      <c r="D197" s="5" t="str">
+        <f t="shared" si="5"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A198" s="2">
+        <v>9</v>
+      </c>
+      <c r="B198" s="2">
         <v>44</v>
       </c>
-      <c r="C196" s="2">
+      <c r="C198" s="2">
         <f t="shared" si="6"/>
         <v>15</v>
       </c>
-      <c r="D196" s="5" t="str">
-        <f t="shared" ref="D196:D259" si="7">TEXT(DATE(2017,5,(B196/12)+1),"dddd")</f>
+      <c r="D198" s="5" t="str">
+        <f t="shared" ref="D198:D261" si="7">TEXT(DATE(2017,5,(B198/12)+1),"dddd")</f>
         <v>czwartek</v>
       </c>
     </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A197" s="2">
-        <v>9</v>
-      </c>
-      <c r="B197" s="2">
+    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A199" s="2">
+        <v>9</v>
+      </c>
+      <c r="B199" s="2">
         <v>45</v>
       </c>
-      <c r="C197" s="2">
+      <c r="C199" s="2">
         <f t="shared" si="6"/>
         <v>16</v>
-      </c>
-      <c r="D197" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>czwartek</v>
-      </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A198" s="2">
-        <v>9</v>
-      </c>
-      <c r="B198" s="2">
-        <v>46</v>
-      </c>
-      <c r="C198" s="2">
-        <f t="shared" si="6"/>
-        <v>17</v>
-      </c>
-      <c r="D198" s="5" t="str">
-        <f t="shared" si="7"/>
-        <v>czwartek</v>
-      </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A199" s="2">
-        <v>9</v>
-      </c>
-      <c r="B199" s="2">
-        <v>47</v>
-      </c>
-      <c r="C199" s="2">
-        <f t="shared" si="6"/>
-        <v>18</v>
       </c>
       <c r="D199" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3939,15 +3939,15 @@
         <v>9</v>
       </c>
       <c r="B200" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C200" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D200" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>piątek</v>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="201" spans="1:4" x14ac:dyDescent="0.2">
@@ -3955,15 +3955,15 @@
         <v>9</v>
       </c>
       <c r="B201" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C201" s="2">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D201" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>piątek</v>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="202" spans="1:4" x14ac:dyDescent="0.2">
@@ -3971,11 +3971,11 @@
         <v>9</v>
       </c>
       <c r="B202" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C202" s="2">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D202" s="5" t="str">
         <f t="shared" si="7"/>
@@ -3987,11 +3987,11 @@
         <v>9</v>
       </c>
       <c r="B203" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C203" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D203" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4003,11 +4003,11 @@
         <v>9</v>
       </c>
       <c r="B204" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C204" s="2">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D204" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4019,11 +4019,11 @@
         <v>9</v>
       </c>
       <c r="B205" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C205" s="2">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D205" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4032,34 +4032,34 @@
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B206" s="2">
-        <v>0</v>
+        <v>52</v>
       </c>
       <c r="C206" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D206" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>poniedziałek</v>
+        <v>piątek</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B207" s="2">
-        <v>1</v>
+        <v>53</v>
       </c>
       <c r="C207" s="2">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D207" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>poniedziałek</v>
+        <v>piątek</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.2">
@@ -4067,11 +4067,11 @@
         <v>10</v>
       </c>
       <c r="B208" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C208" s="2">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D208" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4083,11 +4083,11 @@
         <v>10</v>
       </c>
       <c r="B209" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C209" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D209" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4099,11 +4099,11 @@
         <v>10</v>
       </c>
       <c r="B210" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C210" s="2">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D210" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4115,11 +4115,11 @@
         <v>10</v>
       </c>
       <c r="B211" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C211" s="2">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D211" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4131,11 +4131,11 @@
         <v>10</v>
       </c>
       <c r="B212" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C212" s="2">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D212" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4147,11 +4147,11 @@
         <v>10</v>
       </c>
       <c r="B213" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C213" s="2">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D213" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4163,11 +4163,11 @@
         <v>10</v>
       </c>
       <c r="B214" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C214" s="2">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D214" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4179,11 +4179,11 @@
         <v>10</v>
       </c>
       <c r="B215" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C215" s="2">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D215" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4195,11 +4195,11 @@
         <v>10</v>
       </c>
       <c r="B216" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C216" s="2">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D216" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4211,11 +4211,11 @@
         <v>10</v>
       </c>
       <c r="B217" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C217" s="2">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D217" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4227,15 +4227,15 @@
         <v>10</v>
       </c>
       <c r="B218" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C218" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D218" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="219" spans="1:4" x14ac:dyDescent="0.2">
@@ -4243,15 +4243,15 @@
         <v>10</v>
       </c>
       <c r="B219" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C219" s="2">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D219" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="220" spans="1:4" x14ac:dyDescent="0.2">
@@ -4259,11 +4259,11 @@
         <v>10</v>
       </c>
       <c r="B220" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C220" s="2">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D220" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4275,11 +4275,11 @@
         <v>10</v>
       </c>
       <c r="B221" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C221" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D221" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4291,11 +4291,11 @@
         <v>10</v>
       </c>
       <c r="B222" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C222" s="2">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D222" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4307,11 +4307,11 @@
         <v>10</v>
       </c>
       <c r="B223" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C223" s="2">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D223" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4323,11 +4323,11 @@
         <v>10</v>
       </c>
       <c r="B224" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C224" s="2">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D224" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4339,11 +4339,11 @@
         <v>10</v>
       </c>
       <c r="B225" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C225" s="2">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D225" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4355,11 +4355,11 @@
         <v>10</v>
       </c>
       <c r="B226" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C226" s="2">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D226" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4371,11 +4371,11 @@
         <v>10</v>
       </c>
       <c r="B227" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C227" s="2">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D227" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4387,11 +4387,11 @@
         <v>10</v>
       </c>
       <c r="B228" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C228" s="2">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D228" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4403,11 +4403,11 @@
         <v>10</v>
       </c>
       <c r="B229" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C229" s="2">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D229" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4419,47 +4419,47 @@
         <v>10</v>
       </c>
       <c r="B230" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C230" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D230" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>środa</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="231" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B231" s="2">
-        <v>0</v>
+        <v>23</v>
       </c>
       <c r="C231" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="D231" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>poniedziałek</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="232" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B232" s="2">
-        <v>1</v>
+        <v>24</v>
       </c>
       <c r="C232" s="2">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D232" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>poniedziałek</v>
+        <v>środa</v>
       </c>
     </row>
     <row r="233" spans="1:4" x14ac:dyDescent="0.2">
@@ -4467,11 +4467,11 @@
         <v>11</v>
       </c>
       <c r="B233" s="2">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C233" s="2">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D233" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4483,11 +4483,11 @@
         <v>11</v>
       </c>
       <c r="B234" s="2">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="C234" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D234" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4499,11 +4499,11 @@
         <v>11</v>
       </c>
       <c r="B235" s="2">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="C235" s="2">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D235" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4515,11 +4515,11 @@
         <v>11</v>
       </c>
       <c r="B236" s="2">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C236" s="2">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D236" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4531,11 +4531,11 @@
         <v>11</v>
       </c>
       <c r="B237" s="2">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C237" s="2">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D237" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4547,11 +4547,11 @@
         <v>11</v>
       </c>
       <c r="B238" s="2">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="C238" s="2">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D238" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4563,11 +4563,11 @@
         <v>11</v>
       </c>
       <c r="B239" s="2">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C239" s="2">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D239" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4579,11 +4579,11 @@
         <v>11</v>
       </c>
       <c r="B240" s="2">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C240" s="2">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D240" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4595,11 +4595,11 @@
         <v>11</v>
       </c>
       <c r="B241" s="2">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C241" s="2">
         <f t="shared" si="6"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D241" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4611,11 +4611,11 @@
         <v>11</v>
       </c>
       <c r="B242" s="2">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="C242" s="2">
         <f t="shared" si="6"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D242" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4627,15 +4627,15 @@
         <v>11</v>
       </c>
       <c r="B243" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C243" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D243" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="244" spans="1:4" x14ac:dyDescent="0.2">
@@ -4643,15 +4643,15 @@
         <v>11</v>
       </c>
       <c r="B244" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C244" s="2">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D244" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="245" spans="1:4" x14ac:dyDescent="0.2">
@@ -4659,11 +4659,11 @@
         <v>11</v>
       </c>
       <c r="B245" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C245" s="2">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D245" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4675,11 +4675,11 @@
         <v>11</v>
       </c>
       <c r="B246" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C246" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D246" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4691,11 +4691,11 @@
         <v>11</v>
       </c>
       <c r="B247" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C247" s="2">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D247" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4707,11 +4707,11 @@
         <v>11</v>
       </c>
       <c r="B248" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C248" s="2">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D248" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4720,34 +4720,34 @@
     </row>
     <row r="249" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B249" s="2">
-        <v>36</v>
+        <v>16</v>
       </c>
       <c r="C249" s="2">
         <f t="shared" si="6"/>
-        <v>7</v>
+        <v>11</v>
       </c>
       <c r="D249" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>czwartek</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="250" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B250" s="2">
-        <v>37</v>
+        <v>17</v>
       </c>
       <c r="C250" s="2">
         <f t="shared" si="6"/>
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="D250" s="5" t="str">
         <f t="shared" si="7"/>
-        <v>czwartek</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="251" spans="1:4" x14ac:dyDescent="0.2">
@@ -4755,11 +4755,11 @@
         <v>12</v>
       </c>
       <c r="B251" s="2">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="C251" s="2">
         <f t="shared" si="6"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D251" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4771,11 +4771,11 @@
         <v>12</v>
       </c>
       <c r="B252" s="2">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="C252" s="2">
         <f t="shared" si="6"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D252" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4787,11 +4787,11 @@
         <v>12</v>
       </c>
       <c r="B253" s="2">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C253" s="2">
         <f t="shared" si="6"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D253" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4803,11 +4803,11 @@
         <v>12</v>
       </c>
       <c r="B254" s="2">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C254" s="2">
         <f t="shared" si="6"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D254" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4819,11 +4819,11 @@
         <v>12</v>
       </c>
       <c r="B255" s="2">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="C255" s="2">
         <f t="shared" si="6"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D255" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4835,11 +4835,11 @@
         <v>12</v>
       </c>
       <c r="B256" s="2">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C256" s="2">
         <f t="shared" si="6"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D256" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4851,11 +4851,11 @@
         <v>12</v>
       </c>
       <c r="B257" s="2">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C257" s="2">
         <f t="shared" si="6"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D257" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4867,11 +4867,11 @@
         <v>12</v>
       </c>
       <c r="B258" s="2">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="C258" s="2">
         <f t="shared" si="6"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D258" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4883,11 +4883,11 @@
         <v>12</v>
       </c>
       <c r="B259" s="2">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C259" s="2">
-        <f t="shared" ref="C259:C310" si="8">MOD(B259,12) +7</f>
-        <v>17</v>
+        <f t="shared" si="6"/>
+        <v>15</v>
       </c>
       <c r="D259" s="5" t="str">
         <f t="shared" si="7"/>
@@ -4899,14 +4899,14 @@
         <v>12</v>
       </c>
       <c r="B260" s="2">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C260" s="2">
-        <f t="shared" si="8"/>
-        <v>18</v>
+        <f t="shared" si="6"/>
+        <v>16</v>
       </c>
       <c r="D260" s="5" t="str">
-        <f t="shared" ref="D260:D310" si="9">TEXT(DATE(2017,5,(B260/12)+1),"dddd")</f>
+        <f t="shared" si="7"/>
         <v>czwartek</v>
       </c>
     </row>
@@ -4915,15 +4915,15 @@
         <v>12</v>
       </c>
       <c r="B261" s="2">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="C261" s="2">
-        <f t="shared" si="8"/>
-        <v>7</v>
+        <f t="shared" ref="C261:C312" si="8">MOD(B261,12) +7</f>
+        <v>17</v>
       </c>
       <c r="D261" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>piątek</v>
+        <f t="shared" si="7"/>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="262" spans="1:4" x14ac:dyDescent="0.2">
@@ -4931,15 +4931,15 @@
         <v>12</v>
       </c>
       <c r="B262" s="2">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="C262" s="2">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D262" s="5" t="str">
-        <f t="shared" si="9"/>
-        <v>piątek</v>
+        <f t="shared" ref="D262:D312" si="9">TEXT(DATE(2017,5,(B262/12)+1),"dddd")</f>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="263" spans="1:4" x14ac:dyDescent="0.2">
@@ -4947,11 +4947,11 @@
         <v>12</v>
       </c>
       <c r="B263" s="2">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C263" s="2">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D263" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4963,11 +4963,11 @@
         <v>12</v>
       </c>
       <c r="B264" s="2">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="C264" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D264" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4979,11 +4979,11 @@
         <v>12</v>
       </c>
       <c r="B265" s="2">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C265" s="2">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D265" s="5" t="str">
         <f t="shared" si="9"/>
@@ -4995,11 +4995,11 @@
         <v>12</v>
       </c>
       <c r="B266" s="2">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="C266" s="2">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D266" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5008,34 +5008,34 @@
     </row>
     <row r="267" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B267" s="2">
-        <v>20</v>
+        <v>52</v>
       </c>
       <c r="C267" s="2">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D267" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>wtorek</v>
+        <v>piątek</v>
       </c>
     </row>
     <row r="268" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B268" s="2">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="C268" s="2">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D268" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>wtorek</v>
+        <v>piątek</v>
       </c>
     </row>
     <row r="269" spans="1:4" x14ac:dyDescent="0.2">
@@ -5043,11 +5043,11 @@
         <v>13</v>
       </c>
       <c r="B269" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C269" s="2">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D269" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5059,11 +5059,11 @@
         <v>13</v>
       </c>
       <c r="B270" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C270" s="2">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D270" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5075,15 +5075,15 @@
         <v>13</v>
       </c>
       <c r="B271" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C271" s="2">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D271" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>środa</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="272" spans="1:4" x14ac:dyDescent="0.2">
@@ -5091,15 +5091,15 @@
         <v>13</v>
       </c>
       <c r="B272" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C272" s="2">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D272" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>środa</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="273" spans="1:4" x14ac:dyDescent="0.2">
@@ -5107,11 +5107,11 @@
         <v>13</v>
       </c>
       <c r="B273" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C273" s="2">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D273" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5123,11 +5123,11 @@
         <v>13</v>
       </c>
       <c r="B274" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C274" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D274" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5139,11 +5139,11 @@
         <v>13</v>
       </c>
       <c r="B275" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C275" s="2">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D275" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5155,11 +5155,11 @@
         <v>13</v>
       </c>
       <c r="B276" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C276" s="2">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D276" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5171,11 +5171,11 @@
         <v>13</v>
       </c>
       <c r="B277" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C277" s="2">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D277" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5187,11 +5187,11 @@
         <v>13</v>
       </c>
       <c r="B278" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C278" s="2">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D278" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5203,11 +5203,11 @@
         <v>13</v>
       </c>
       <c r="B279" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C279" s="2">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D279" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5219,11 +5219,11 @@
         <v>13</v>
       </c>
       <c r="B280" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C280" s="2">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D280" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5235,11 +5235,11 @@
         <v>13</v>
       </c>
       <c r="B281" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C281" s="2">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D281" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5251,11 +5251,11 @@
         <v>13</v>
       </c>
       <c r="B282" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C282" s="2">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D282" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5267,47 +5267,47 @@
         <v>13</v>
       </c>
       <c r="B283" s="2">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C283" s="2">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D283" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>czwartek</v>
+        <v>środa</v>
       </c>
     </row>
     <row r="284" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B284" s="2">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="C284" s="2">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D284" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>czwartek</v>
+        <v>środa</v>
       </c>
     </row>
     <row r="285" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B285" s="2">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="C285" s="2">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>7</v>
       </c>
       <c r="D285" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>poniedziałek</v>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="286" spans="1:4" x14ac:dyDescent="0.2">
@@ -5315,15 +5315,15 @@
         <v>14</v>
       </c>
       <c r="B286" s="2">
-        <v>11</v>
+        <v>37</v>
       </c>
       <c r="C286" s="2">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>8</v>
       </c>
       <c r="D286" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>poniedziałek</v>
+        <v>czwartek</v>
       </c>
     </row>
     <row r="287" spans="1:4" x14ac:dyDescent="0.2">
@@ -5331,15 +5331,15 @@
         <v>14</v>
       </c>
       <c r="B287" s="2">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C287" s="2">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D287" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="288" spans="1:4" x14ac:dyDescent="0.2">
@@ -5347,15 +5347,15 @@
         <v>14</v>
       </c>
       <c r="B288" s="2">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="C288" s="2">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D288" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>wtorek</v>
+        <v>poniedziałek</v>
       </c>
     </row>
     <row r="289" spans="1:4" x14ac:dyDescent="0.2">
@@ -5363,11 +5363,11 @@
         <v>14</v>
       </c>
       <c r="B289" s="2">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C289" s="2">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D289" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5379,11 +5379,11 @@
         <v>14</v>
       </c>
       <c r="B290" s="2">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="C290" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D290" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5395,11 +5395,11 @@
         <v>14</v>
       </c>
       <c r="B291" s="2">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C291" s="2">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D291" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5411,11 +5411,11 @@
         <v>14</v>
       </c>
       <c r="B292" s="2">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="C292" s="2">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D292" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5427,11 +5427,11 @@
         <v>14</v>
       </c>
       <c r="B293" s="2">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C293" s="2">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D293" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5443,11 +5443,11 @@
         <v>14</v>
       </c>
       <c r="B294" s="2">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C294" s="2">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D294" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5459,11 +5459,11 @@
         <v>14</v>
       </c>
       <c r="B295" s="2">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="C295" s="2">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D295" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5475,11 +5475,11 @@
         <v>14</v>
       </c>
       <c r="B296" s="2">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C296" s="2">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D296" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5491,11 +5491,11 @@
         <v>14</v>
       </c>
       <c r="B297" s="2">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="C297" s="2">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D297" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5507,11 +5507,11 @@
         <v>14</v>
       </c>
       <c r="B298" s="2">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C298" s="2">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D298" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5523,15 +5523,15 @@
         <v>14</v>
       </c>
       <c r="B299" s="2">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C299" s="2">
         <f t="shared" si="8"/>
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="D299" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>środa</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="300" spans="1:4" x14ac:dyDescent="0.2">
@@ -5539,15 +5539,15 @@
         <v>14</v>
       </c>
       <c r="B300" s="2">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="C300" s="2">
         <f t="shared" si="8"/>
-        <v>8</v>
+        <v>18</v>
       </c>
       <c r="D300" s="5" t="str">
         <f t="shared" si="9"/>
-        <v>środa</v>
+        <v>wtorek</v>
       </c>
     </row>
     <row r="301" spans="1:4" x14ac:dyDescent="0.2">
@@ -5555,11 +5555,11 @@
         <v>14</v>
       </c>
       <c r="B301" s="2">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C301" s="2">
         <f t="shared" si="8"/>
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D301" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5571,11 +5571,11 @@
         <v>14</v>
       </c>
       <c r="B302" s="2">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C302" s="2">
         <f t="shared" si="8"/>
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D302" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5587,11 +5587,11 @@
         <v>14</v>
       </c>
       <c r="B303" s="2">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C303" s="2">
         <f t="shared" si="8"/>
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D303" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5603,11 +5603,11 @@
         <v>14</v>
       </c>
       <c r="B304" s="2">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="C304" s="2">
         <f t="shared" si="8"/>
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D304" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5619,11 +5619,11 @@
         <v>14</v>
       </c>
       <c r="B305" s="2">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C305" s="2">
         <f t="shared" si="8"/>
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D305" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5635,11 +5635,11 @@
         <v>14</v>
       </c>
       <c r="B306" s="2">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="C306" s="2">
         <f t="shared" si="8"/>
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D306" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5651,11 +5651,11 @@
         <v>14</v>
       </c>
       <c r="B307" s="2">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="C307" s="2">
         <f t="shared" si="8"/>
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D307" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5667,11 +5667,11 @@
         <v>14</v>
       </c>
       <c r="B308" s="2">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="C308" s="2">
         <f t="shared" si="8"/>
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D308" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5683,11 +5683,11 @@
         <v>14</v>
       </c>
       <c r="B309" s="2">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="C309" s="2">
         <f t="shared" si="8"/>
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D309" s="5" t="str">
         <f t="shared" si="9"/>
@@ -5699,15 +5699,639 @@
         <v>14</v>
       </c>
       <c r="B310" s="2">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C310" s="2">
         <f t="shared" si="8"/>
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D310" s="5" t="str">
         <f t="shared" si="9"/>
         <v>środa</v>
+      </c>
+    </row>
+    <row r="311" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A311" s="2">
+        <v>14</v>
+      </c>
+      <c r="B311" s="2">
+        <v>34</v>
+      </c>
+      <c r="C311" s="2">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="D311" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="312" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A312" s="2">
+        <v>14</v>
+      </c>
+      <c r="B312" s="2">
+        <v>35</v>
+      </c>
+      <c r="C312" s="2">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="D312" s="5" t="str">
+        <f t="shared" si="9"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="313" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A313" s="2">
+        <v>1</v>
+      </c>
+      <c r="B313" s="2">
+        <v>20</v>
+      </c>
+      <c r="C313" s="2">
+        <f>MOD(B313,12) +7</f>
+        <v>15</v>
+      </c>
+      <c r="D313" s="5" t="str">
+        <f>TEXT(DATE(2017,5,(B313/12)+1),"dddd")</f>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="314" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A314" s="2">
+        <v>1</v>
+      </c>
+      <c r="B314" s="2">
+        <v>21</v>
+      </c>
+      <c r="C314" s="2">
+        <f t="shared" ref="C314:C349" si="10">MOD(B314,12) +7</f>
+        <v>16</v>
+      </c>
+      <c r="D314" s="5" t="str">
+        <f>TEXT(DATE(2017,5,(B314/12)+1),"dddd")</f>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="315" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A315" s="2">
+        <v>1</v>
+      </c>
+      <c r="B315" s="2">
+        <v>22</v>
+      </c>
+      <c r="C315" s="2">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="D315" s="5" t="str">
+        <f t="shared" ref="D315:D349" si="11">TEXT(DATE(2017,5,(B315/12)+1),"dddd")</f>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="316" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A316" s="2">
+        <v>1</v>
+      </c>
+      <c r="B316" s="2">
+        <v>23</v>
+      </c>
+      <c r="C316" s="2">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="D316" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>wtorek</v>
+      </c>
+    </row>
+    <row r="317" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A317" s="2">
+        <v>1</v>
+      </c>
+      <c r="B317" s="2">
+        <v>24</v>
+      </c>
+      <c r="C317" s="2">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D317" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="318" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A318" s="2">
+        <v>1</v>
+      </c>
+      <c r="B318" s="2">
+        <v>25</v>
+      </c>
+      <c r="C318" s="2">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D318" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="319" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A319" s="2">
+        <v>1</v>
+      </c>
+      <c r="B319" s="2">
+        <v>26</v>
+      </c>
+      <c r="C319" s="2">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="D319" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="320" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A320" s="2">
+        <v>1</v>
+      </c>
+      <c r="B320" s="2">
+        <v>27</v>
+      </c>
+      <c r="C320" s="2">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="D320" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="321" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A321" s="2">
+        <v>1</v>
+      </c>
+      <c r="B321" s="2">
+        <v>28</v>
+      </c>
+      <c r="C321" s="2">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="D321" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="322" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A322" s="2">
+        <v>1</v>
+      </c>
+      <c r="B322" s="2">
+        <v>29</v>
+      </c>
+      <c r="C322" s="2">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="D322" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="323" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A323" s="2">
+        <v>1</v>
+      </c>
+      <c r="B323" s="2">
+        <v>30</v>
+      </c>
+      <c r="C323" s="2">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D323" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="324" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A324" s="2">
+        <v>1</v>
+      </c>
+      <c r="B324" s="2">
+        <v>31</v>
+      </c>
+      <c r="C324" s="2">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="D324" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="325" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A325" s="2">
+        <v>1</v>
+      </c>
+      <c r="B325" s="2">
+        <v>32</v>
+      </c>
+      <c r="C325" s="2">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="D325" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="326" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A326" s="2">
+        <v>1</v>
+      </c>
+      <c r="B326" s="2">
+        <v>33</v>
+      </c>
+      <c r="C326" s="2">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="D326" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="327" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A327" s="2">
+        <v>1</v>
+      </c>
+      <c r="B327" s="2">
+        <v>34</v>
+      </c>
+      <c r="C327" s="2">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="D327" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="328" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A328" s="2">
+        <v>1</v>
+      </c>
+      <c r="B328" s="2">
+        <v>35</v>
+      </c>
+      <c r="C328" s="2">
+        <f t="shared" si="10"/>
+        <v>18</v>
+      </c>
+      <c r="D328" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>środa</v>
+      </c>
+    </row>
+    <row r="329" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A329" s="2">
+        <v>2</v>
+      </c>
+      <c r="B329" s="2">
+        <v>36</v>
+      </c>
+      <c r="C329" s="2">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D329" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="330" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A330" s="2">
+        <v>2</v>
+      </c>
+      <c r="B330" s="2">
+        <v>37</v>
+      </c>
+      <c r="C330" s="2">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D330" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="331" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A331" s="2">
+        <v>2</v>
+      </c>
+      <c r="B331" s="2">
+        <v>38</v>
+      </c>
+      <c r="C331" s="2">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="D331" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="332" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A332" s="2">
+        <v>2</v>
+      </c>
+      <c r="B332" s="2">
+        <v>39</v>
+      </c>
+      <c r="C332" s="2">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="D332" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="333" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A333" s="2">
+        <v>2</v>
+      </c>
+      <c r="B333" s="2">
+        <v>40</v>
+      </c>
+      <c r="C333" s="2">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="D333" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="334" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A334" s="2">
+        <v>2</v>
+      </c>
+      <c r="B334" s="2">
+        <v>41</v>
+      </c>
+      <c r="C334" s="2">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="D334" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="335" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A335" s="2">
+        <v>2</v>
+      </c>
+      <c r="B335" s="2">
+        <v>42</v>
+      </c>
+      <c r="C335" s="2">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D335" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="336" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A336" s="2">
+        <v>2</v>
+      </c>
+      <c r="B336" s="2">
+        <v>43</v>
+      </c>
+      <c r="C336" s="2">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="D336" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="337" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A337" s="2">
+        <v>2</v>
+      </c>
+      <c r="B337" s="2">
+        <v>44</v>
+      </c>
+      <c r="C337" s="2">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="D337" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="338" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A338" s="2">
+        <v>2</v>
+      </c>
+      <c r="B338" s="2">
+        <v>45</v>
+      </c>
+      <c r="C338" s="2">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="D338" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="339" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A339" s="2">
+        <v>2</v>
+      </c>
+      <c r="B339" s="2">
+        <v>46</v>
+      </c>
+      <c r="C339" s="2">
+        <f t="shared" si="10"/>
+        <v>17</v>
+      </c>
+      <c r="D339" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>czwartek</v>
+      </c>
+    </row>
+    <row r="340" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A340" s="2">
+        <v>3</v>
+      </c>
+      <c r="B340" s="2">
+        <v>48</v>
+      </c>
+      <c r="C340" s="2">
+        <f t="shared" si="10"/>
+        <v>7</v>
+      </c>
+      <c r="D340" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="341" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A341" s="2">
+        <v>3</v>
+      </c>
+      <c r="B341" s="2">
+        <v>49</v>
+      </c>
+      <c r="C341" s="2">
+        <f t="shared" si="10"/>
+        <v>8</v>
+      </c>
+      <c r="D341" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="342" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A342" s="2">
+        <v>3</v>
+      </c>
+      <c r="B342" s="2">
+        <v>50</v>
+      </c>
+      <c r="C342" s="2">
+        <f t="shared" si="10"/>
+        <v>9</v>
+      </c>
+      <c r="D342" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="343" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A343" s="2">
+        <v>3</v>
+      </c>
+      <c r="B343" s="2">
+        <v>51</v>
+      </c>
+      <c r="C343" s="2">
+        <f t="shared" si="10"/>
+        <v>10</v>
+      </c>
+      <c r="D343" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="344" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A344" s="2">
+        <v>3</v>
+      </c>
+      <c r="B344" s="2">
+        <v>52</v>
+      </c>
+      <c r="C344" s="2">
+        <f t="shared" si="10"/>
+        <v>11</v>
+      </c>
+      <c r="D344" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="345" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A345" s="2">
+        <v>3</v>
+      </c>
+      <c r="B345" s="2">
+        <v>53</v>
+      </c>
+      <c r="C345" s="2">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="D345" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="346" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A346" s="2">
+        <v>3</v>
+      </c>
+      <c r="B346" s="2">
+        <v>54</v>
+      </c>
+      <c r="C346" s="2">
+        <f t="shared" si="10"/>
+        <v>13</v>
+      </c>
+      <c r="D346" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="347" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A347" s="2">
+        <v>3</v>
+      </c>
+      <c r="B347" s="2">
+        <v>55</v>
+      </c>
+      <c r="C347" s="2">
+        <f t="shared" si="10"/>
+        <v>14</v>
+      </c>
+      <c r="D347" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="348" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A348" s="2">
+        <v>3</v>
+      </c>
+      <c r="B348" s="2">
+        <v>56</v>
+      </c>
+      <c r="C348" s="2">
+        <f t="shared" si="10"/>
+        <v>15</v>
+      </c>
+      <c r="D348" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>piątek</v>
+      </c>
+    </row>
+    <row r="349" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A349" s="2">
+        <v>3</v>
+      </c>
+      <c r="B349" s="2">
+        <v>57</v>
+      </c>
+      <c r="C349" s="2">
+        <f t="shared" si="10"/>
+        <v>16</v>
+      </c>
+      <c r="D349" s="5" t="str">
+        <f t="shared" si="11"/>
+        <v>piątek</v>
       </c>
     </row>
   </sheetData>
